--- a/ExcelRAddIn/Tests/Forecast.xlsx
+++ b/ExcelRAddIn/Tests/Forecast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Projects\C#\Office\Office365 AddIns\ExcelRAddIn\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE3E099-08D8-4A3F-9808-C4AF6A4E0742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A98C7CC-69BB-41B5-A6C7-6C031F2A82C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="899" firstSheet="8" activeTab="17" xr2:uid="{237949DD-86ED-4837-BFB0-873A1F9330BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="899" firstSheet="9" activeTab="18" xr2:uid="{237949DD-86ED-4837-BFB0-873A1F9330BE}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="2" r:id="rId1"/>
@@ -21,10 +21,10 @@
     <sheet name="Holt" sheetId="5" r:id="rId6"/>
     <sheet name="HW" sheetId="6" r:id="rId7"/>
     <sheet name="ETS" sheetId="7" r:id="rId8"/>
-    <sheet name="ARIMA" sheetId="9" r:id="rId9"/>
-    <sheet name="ARIMA (2)" sheetId="19" r:id="rId10"/>
-    <sheet name="Auto ARIMA" sheetId="11" r:id="rId11"/>
-    <sheet name="Forecast" sheetId="10" r:id="rId12"/>
+    <sheet name="Forecast" sheetId="10" r:id="rId9"/>
+    <sheet name="ARIMA" sheetId="9" r:id="rId10"/>
+    <sheet name="ARIMA (2)" sheetId="19" r:id="rId11"/>
+    <sheet name="Auto ARIMA" sheetId="11" r:id="rId12"/>
     <sheet name="meanf" sheetId="12" r:id="rId13"/>
     <sheet name="rwf" sheetId="14" r:id="rId14"/>
     <sheet name="splinef" sheetId="15" r:id="rId15"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="195">
   <si>
     <t>Day</t>
   </si>
@@ -566,9 +566,6 @@
     <t>Frequency</t>
   </si>
   <si>
-    <t>=RScript.Evaluate(B3)</t>
-  </si>
-  <si>
     <t>fc &lt;- forecast(WWWusage)</t>
   </si>
   <si>
@@ -805,6 +802,21 @@
   <si>
     <t>Arima</t>
   </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Default libraries can now be specified in Settings</t>
+  </si>
+  <si>
+    <t># Forecast using a script</t>
+  </si>
+  <si>
+    <t># Unpack model results</t>
+  </si>
 </sst>
 </file>
 
@@ -920,7 +932,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -945,19 +957,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3879,16 +3906,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3430F3E2-40D1-462D-9840-59D182943A66}" name="tNile" displayName="tNile" ref="B2:B102" totalsRowShown="0">
-  <autoFilter ref="B2:B102" xr:uid="{3430F3E2-40D1-462D-9840-59D182943A66}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{1557DE8A-6427-40D0-BC41-990BAE256642}" name="Table14" displayName="Table14" ref="B2:B5" totalsRowShown="0" dataCellStyle="Hyperlink">
+  <autoFilter ref="B2:B5" xr:uid="{1557DE8A-6427-40D0-BC41-990BAE256642}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{B454B2CF-5DE9-48A8-86A5-45EDDE684073}" name="Nile"/>
+    <tableColumn id="1" xr3:uid="{A172B45C-439B-4C3D-9BAE-618313F1F983}" name="Packages" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A0FBF39D-AC4A-4A0D-BFA0-1BE8FAC81DA2}" name="tGalapagosData" displayName="tGalapagosData" ref="V2:AC32" totalsRowShown="0">
+  <autoFilter ref="V2:AC32" xr:uid="{D811A101-F50B-43D1-8DC5-4767B7FB9A71}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{8129F513-68FC-4A4F-AE91-83AA69B2879B}" name="Island"/>
+    <tableColumn id="2" xr3:uid="{96D1F02A-8933-4A3D-97F8-07949BA7EF41}" name="Species"/>
+    <tableColumn id="3" xr3:uid="{1AD8412C-96A4-460D-9FC0-78E051A4DAE4}" name="Endemics"/>
+    <tableColumn id="4" xr3:uid="{5FA86958-3B86-4D32-87A8-118DA9CDA5CF}" name="Area"/>
+    <tableColumn id="5" xr3:uid="{8E108619-58DF-494F-B6BD-A6E36933A917}" name="Elevation"/>
+    <tableColumn id="6" xr3:uid="{D1C403EA-15A5-4849-A356-9D9ABE2A6EFE}" name="Nearest"/>
+    <tableColumn id="7" xr3:uid="{80E5EAC5-3583-4C6C-A2BA-12A0D9D2C6A3}" name="Scruz"/>
+    <tableColumn id="8" xr3:uid="{19DFE473-4731-4FFD-8D5D-724DC2A68A88}" name="Adjacent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{18635AAD-5A44-483B-A430-4DDC32A72EE8}" name="tAvgHits" displayName="tAvgHits" ref="AE2:AE79" totalsRowShown="0">
   <autoFilter ref="AE2:AE79" xr:uid="{18635AAD-5A44-483B-A430-4DDC32A72EE8}"/>
   <tableColumns count="1">
@@ -3898,7 +3942,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{9F5D738A-59E1-47B6-91DF-4E14D7AED326}" name="tPurchaseData" displayName="tPurchaseData" ref="AG2:AJ38" totalsRowShown="0">
   <autoFilter ref="AG2:AJ38" xr:uid="{9F5D738A-59E1-47B6-91DF-4E14D7AED326}"/>
   <tableColumns count="4">
@@ -3911,7 +3955,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{140AE08C-E517-4FA3-971C-7AF08A6005CF}" name="TableSales" displayName="TableSales" ref="B9:B36" totalsRowShown="0">
   <autoFilter ref="B9:B36" xr:uid="{140AE08C-E517-4FA3-971C-7AF08A6005CF}"/>
   <tableColumns count="1">
@@ -3921,7 +3965,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1BAE32FB-A156-4349-ACB2-27F06B8FF1CA}" name="Table6" displayName="Table6" ref="M9:M185" totalsRowShown="0">
   <autoFilter ref="M9:M185" xr:uid="{1BAE32FB-A156-4349-ACB2-27F06B8FF1CA}"/>
   <tableColumns count="1">
@@ -3932,6 +3976,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3430F3E2-40D1-462D-9840-59D182943A66}" name="tNile" displayName="tNile" ref="B2:B102" totalsRowShown="0">
+  <autoFilter ref="B2:B102" xr:uid="{3430F3E2-40D1-462D-9840-59D182943A66}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{B454B2CF-5DE9-48A8-86A5-45EDDE684073}" name="Nile"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{973ACA5E-F983-4F9A-B612-27A29E45AA4A}" name="tGold" displayName="tGold" ref="D2:D1110" totalsRowShown="0">
   <autoFilter ref="D2:D1110" xr:uid="{973ACA5E-F983-4F9A-B612-27A29E45AA4A}"/>
   <tableColumns count="1">
@@ -3941,7 +3995,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{000B207F-609E-492B-A7F0-BD62A3665B2F}" name="tUSPop" displayName="tUSPop" ref="F2:F21" totalsRowShown="0">
   <autoFilter ref="F2:F21" xr:uid="{000B207F-609E-492B-A7F0-BD62A3665B2F}"/>
   <tableColumns count="1">
@@ -3951,7 +4005,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CDB4D6DA-C704-4205-950D-1A2D057994BA}" name="tWWWusage" displayName="tWWWusage" ref="H2:I102" totalsRowShown="0">
   <autoFilter ref="H2:I102" xr:uid="{CDB4D6DA-C704-4205-950D-1A2D057994BA}"/>
   <tableColumns count="2">
@@ -3962,7 +4016,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DA759416-49A9-4D98-B921-9AA437214C1A}" name="tGallons" displayName="tGallons" ref="K2:L23" totalsRowShown="0">
   <autoFilter ref="K2:L23" xr:uid="{DA759416-49A9-4D98-B921-9AA437214C1A}"/>
   <tableColumns count="2">
@@ -3973,7 +4027,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE2693D5-ABE6-45E7-A842-F52F08CEC2E4}" name="tCustomers" displayName="tCustomers" ref="N2:N35" totalsRowShown="0">
   <autoFilter ref="N2:N35" xr:uid="{BE2693D5-ABE6-45E7-A842-F52F08CEC2E4}"/>
   <tableColumns count="1">
@@ -3983,7 +4037,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{94B42545-8C9A-4DFB-AE64-69D8AC2E23B1}" name="tAirPassengers" displayName="tAirPassengers" ref="S2:T146" totalsRowShown="0">
   <autoFilter ref="S2:T146" xr:uid="{94B42545-8C9A-4DFB-AE64-69D8AC2E23B1}"/>
   <tableColumns count="2">
@@ -3994,29 +4048,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{10C9285B-CA0B-4D69-8B78-D65978A2852D}" name="tAusTourists" displayName="tAusTourists" ref="P2:Q70" totalsRowShown="0">
   <autoFilter ref="P2:Q70" xr:uid="{10C9285B-CA0B-4D69-8B78-D65978A2852D}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{DC27B4D6-33BF-4790-82E6-B374A5D168DF}" name="Step"/>
     <tableColumn id="2" xr3:uid="{ED1D1E0E-C28B-45FF-91D9-BC1F75FCCE0F}" name="aust"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A0FBF39D-AC4A-4A0D-BFA0-1BE8FAC81DA2}" name="tGalapagosData" displayName="tGalapagosData" ref="V2:AC32" totalsRowShown="0">
-  <autoFilter ref="V2:AC32" xr:uid="{D811A101-F50B-43D1-8DC5-4767B7FB9A71}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8129F513-68FC-4A4F-AE91-83AA69B2879B}" name="Island"/>
-    <tableColumn id="2" xr3:uid="{96D1F02A-8933-4A3D-97F8-07949BA7EF41}" name="Species"/>
-    <tableColumn id="3" xr3:uid="{1AD8412C-96A4-460D-9FC0-78E051A4DAE4}" name="Endemics"/>
-    <tableColumn id="4" xr3:uid="{5FA86958-3B86-4D32-87A8-118DA9CDA5CF}" name="Area"/>
-    <tableColumn id="5" xr3:uid="{8E108619-58DF-494F-B6BD-A6E36933A917}" name="Elevation"/>
-    <tableColumn id="6" xr3:uid="{D1C403EA-15A5-4849-A356-9D9ABE2A6EFE}" name="Nearest"/>
-    <tableColumn id="7" xr3:uid="{80E5EAC5-3583-4C6C-A2BA-12A0D9D2C6A3}" name="Scruz"/>
-    <tableColumn id="8" xr3:uid="{19DFE473-4731-4FFD-8D5D-724DC2A68A88}" name="Adjacent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4342,10 +4379,13 @@
   <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="65.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -4374,28 +4414,30 @@
     <hyperlink ref="B5" r:id="rId3" display="https://otexts.com/fpp2/" xr:uid="{3FAAB27B-F8C5-497A-A89F-E85ECC6BA0AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7421D342-395F-40C0-BF8A-CEB5770C5051}">
-  <dimension ref="B2:CI32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D562DCAA-9A4E-4A3E-8308-7D30612CCEAE}">
+  <dimension ref="B2:EX32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="25"/>
       <c r="J2" s="10" t="s">
         <v>28</v>
       </c>
@@ -4405,7 +4447,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="J3" t="str" cm="1">
         <f t="array" ref="J3:J20">_xll.Model.Results(C16)</f>
@@ -4416,10 +4458,10 @@
         <v>Index</v>
       </c>
       <c r="O3" t="str">
-        <v>ar1</v>
+        <v>ma1</v>
       </c>
       <c r="P3" t="str">
-        <v>intercept</v>
+        <v>sma1</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
@@ -4427,24 +4469,24 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="str" cm="1">
-        <f t="array" ref="C4">_xll.RScript.CreateVector(tAvgHits[[#Headers],[AvgHits]],tAvgHits[AvgHits])</f>
-        <v>AvgHits</v>
+        <f t="array" ref="C4">_xll.RScript.CreateVector(tAirPassengers[[#Headers],[AirPassengers]],tAirPassengers[AirPassengers])</f>
+        <v>AirPassengers</v>
       </c>
       <c r="J4" t="str">
         <v>sigma2</v>
       </c>
       <c r="K4" cm="1">
         <f t="array" ref="K4">TRANSPOSE(_xll.Model.Result($C$16,J4))</f>
-        <v>57.608145562021065</v>
+        <v>137.52485061798205</v>
       </c>
       <c r="N4" t="str">
-        <v>avg_hits.model$coef</v>
+        <v>air.model$coef</v>
       </c>
       <c r="O4">
-        <v>0.82333992688711166</v>
+        <v>-0.30867366607559699</v>
       </c>
       <c r="P4">
-        <v>110.23686520327972</v>
+        <v>-0.10744703492617209</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
@@ -4452,17 +4494,17 @@
         <v>70</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="F5" t="str" cm="1">
         <f t="array" ref="F5:H7">TRANSPOSE(_xll.Model.Result($C$16,J5, , TRUE))</f>
         <v>Index</v>
       </c>
       <c r="G5" t="str">
-        <v>ar1</v>
+        <v>ma1</v>
       </c>
       <c r="H5" t="str">
-        <v>intercept</v>
+        <v>sma1</v>
       </c>
       <c r="J5" t="str">
         <v>var.coef</v>
@@ -4472,15 +4514,17 @@
       <c r="B6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="F6" t="str">
-        <v>ar1</v>
+        <v>ma1</v>
       </c>
       <c r="G6">
-        <v>4.2644842633925246E-3</v>
+        <v>7.9121852845489768E-3</v>
       </c>
       <c r="H6">
-        <v>-9.4207541224879086E-3</v>
+        <v>-9.3499573202351287E-4</v>
       </c>
       <c r="J6" t="str">
         <v>mask</v>
@@ -4499,20 +4543,20 @@
       </c>
       <c r="C7" s="4"/>
       <c r="F7" t="str">
-        <v>intercept</v>
+        <v>sma1</v>
       </c>
       <c r="G7">
-        <v>-9.4207541224879086E-3</v>
+        <v>-9.3499573202351276E-4</v>
       </c>
       <c r="H7">
-        <v>23.678051608823413</v>
+        <v>6.8586245800864925E-3</v>
       </c>
       <c r="J7" t="str">
         <v>loglik</v>
       </c>
       <c r="K7" cm="1">
         <f t="array" ref="K7">TRANSPOSE(_xll.Model.Result($C$16,J7))</f>
-        <v>-264.81438881475191</v>
+        <v>-507.50144324098954</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
@@ -4523,9 +4567,9 @@
       <c r="J8" t="str">
         <v>aic</v>
       </c>
-      <c r="K8" t="b" cm="1">
+      <c r="K8" cm="1">
         <f t="array" ref="K8">TRANSPOSE(_xll.Model.Result($C$16,J8))</f>
-        <v>1</v>
+        <v>1021.0028864819791</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
@@ -4538,25 +4582,25 @@
       </c>
       <c r="K9" cm="1">
         <f t="array" ref="K9:Q9">TRANSPOSE(_xll.Model.Result($C$16,J9))</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
+        <v>12</v>
+      </c>
+      <c r="P9">
         <v>1</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
@@ -4578,7 +4622,7 @@
       </c>
       <c r="K11" t="str" cm="1">
         <f t="array" ref="K11">TRANSPOSE(_xll.Model.Result($C$16,J11))</f>
-        <v>Arima(y = AvgHits, order = c(1, 0, 0), method = "CSS")</v>
+        <v xml:space="preserve">Arima(y = AirPassengers, order = c(0, 1, 1), seasonal = list(order = c(0, </v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
@@ -4594,9 +4638,7 @@
       <c r="B13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>169</v>
-      </c>
+      <c r="C13" s="4"/>
       <c r="J13" t="str">
         <v>code</v>
       </c>
@@ -4611,7 +4653,7 @@
       </c>
       <c r="K14" cm="1">
         <f t="array" ref="K14">TRANSPOSE(_xll.Model.Result($C$16,J14))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
@@ -4620,7 +4662,7 @@
       </c>
       <c r="K15" cm="1">
         <f t="array" ref="K15">TRANSPOSE(_xll.Model.Result($C$16,J15))</f>
-        <v>77</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
@@ -4629,396 +4671,657 @@
       </c>
       <c r="C16" s="6" t="str" cm="1">
         <f t="array" ref="C16">_xll.Forecast.Arima(C3,C4,B5:C13)</f>
-        <v>avg_hits.model</v>
+        <v>air.model</v>
       </c>
       <c r="J16" t="str">
         <v>model</v>
       </c>
     </row>
-    <row r="17" spans="2:87" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:154" x14ac:dyDescent="0.3">
       <c r="J17" t="str">
         <v>aicc</v>
       </c>
-      <c r="K17" t="str" cm="1">
+      <c r="K17" cm="1">
         <f t="array" ref="K17">TRANSPOSE(_xll.Model.Result($C$16,J17))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:87" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+        <v>1021.1918628599318</v>
+      </c>
+    </row>
+    <row r="18" spans="2:154" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>189</v>
+      </c>
       <c r="J18" t="str">
         <v>bic</v>
       </c>
-      <c r="K18" t="str" cm="1">
+      <c r="K18" cm="1">
         <f t="array" ref="K18">TRANSPOSE(_xll.Model.Result($C$16,J18))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:87" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" t="s">
-        <v>171</v>
+        <v>1029.6284784515826</v>
+      </c>
+    </row>
+    <row r="19" spans="2:154" x14ac:dyDescent="0.3">
+      <c r="B19" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>191</v>
       </c>
       <c r="J19" t="str">
         <v>x</v>
       </c>
       <c r="K19" cm="1">
-        <f t="array" ref="K19:CI19">TRANSPOSE(_xll.Model.Result($C$16,J19))</f>
-        <v>105.33376112622406</v>
+        <f t="array" ref="K19:EX19">TRANSPOSE(_xll.Model.Result($C$16,J19))</f>
+        <v>112</v>
       </c>
       <c r="L19">
-        <v>111.79410633687822</v>
+        <v>118</v>
       </c>
       <c r="M19">
-        <v>95.197645971547047</v>
+        <v>132</v>
       </c>
       <c r="N19">
-        <v>89.47529059071762</v>
+        <v>129</v>
       </c>
       <c r="O19">
-        <v>85.572647131307875</v>
+        <v>121</v>
       </c>
       <c r="P19">
-        <v>102.83015305596356</v>
+        <v>135</v>
       </c>
       <c r="Q19">
-        <v>106.80684414070258</v>
+        <v>148</v>
       </c>
       <c r="R19">
-        <v>113.72246749485991</v>
+        <v>148</v>
       </c>
       <c r="S19">
-        <v>119.60061562918311</v>
+        <v>136</v>
       </c>
       <c r="T19">
-        <v>115.75388729149387</v>
+        <v>119</v>
       </c>
       <c r="U19">
-        <v>108.1459323527514</v>
+        <v>104</v>
       </c>
       <c r="V19">
-        <v>110.96292941434531</v>
+        <v>118</v>
       </c>
       <c r="W19">
-        <v>113.24495065834257</v>
+        <v>115</v>
       </c>
       <c r="X19">
-        <v>102.10173545572339</v>
+        <v>126</v>
       </c>
       <c r="Y19">
-        <v>113.51276258544792</v>
+        <v>141</v>
       </c>
       <c r="Z19">
-        <v>117.59963548035714</v>
+        <v>135</v>
       </c>
       <c r="AA19">
-        <v>101.34340836746375</v>
+        <v>125</v>
       </c>
       <c r="AB19">
-        <v>94.418734018227198</v>
+        <v>149</v>
       </c>
       <c r="AC19">
-        <v>112.22617802852734</v>
+        <v>170</v>
       </c>
       <c r="AD19">
-        <v>113.36319780653764</v>
+        <v>170</v>
       </c>
       <c r="AE19">
-        <v>122.54535551176068</v>
+        <v>158</v>
       </c>
       <c r="AF19">
-        <v>117.66423795893876</v>
+        <v>133</v>
       </c>
       <c r="AG19">
-        <v>108.23991357952055</v>
+        <v>114</v>
       </c>
       <c r="AH19">
-        <v>108.22563216606954</v>
+        <v>140</v>
       </c>
       <c r="AI19">
-        <v>113.16547821687877</v>
+        <v>145</v>
       </c>
       <c r="AJ19">
-        <v>117.44826364930336</v>
+        <v>150</v>
       </c>
       <c r="AK19">
-        <v>114.35107161038742</v>
+        <v>178</v>
       </c>
       <c r="AL19">
-        <v>107.83465340957744</v>
+        <v>163</v>
       </c>
       <c r="AM19">
-        <v>126.63979793933468</v>
+        <v>172</v>
       </c>
       <c r="AN19">
-        <v>121.91707488895689</v>
+        <v>178</v>
       </c>
       <c r="AO19">
-        <v>111.76847127438168</v>
+        <v>199</v>
       </c>
       <c r="AP19">
-        <v>116.34219302568984</v>
+        <v>199</v>
       </c>
       <c r="AQ19">
-        <v>133.59735425075155</v>
+        <v>184</v>
       </c>
       <c r="AR19">
-        <v>134.42371509249278</v>
+        <v>162</v>
       </c>
       <c r="AS19">
-        <v>130.79268408149582</v>
+        <v>146</v>
       </c>
       <c r="AT19">
-        <v>133.69720367666622</v>
+        <v>166</v>
       </c>
       <c r="AU19">
-        <v>127.55353870819636</v>
+        <v>171</v>
       </c>
       <c r="AV19">
-        <v>132.77393265679262</v>
+        <v>180</v>
       </c>
       <c r="AW19">
-        <v>138.81931269995454</v>
+        <v>193</v>
       </c>
       <c r="AX19">
-        <v>133.23348093769877</v>
+        <v>181</v>
       </c>
       <c r="AY19">
-        <v>121.02369692404856</v>
+        <v>183</v>
       </c>
       <c r="AZ19">
-        <v>129.59914532348267</v>
+        <v>218</v>
       </c>
       <c r="BA19">
-        <v>132.83565006687212</v>
+        <v>230</v>
       </c>
       <c r="BB19">
-        <v>130.21723290135554</v>
+        <v>242</v>
       </c>
       <c r="BC19">
-        <v>127.44630923574098</v>
+        <v>209</v>
       </c>
       <c r="BD19">
-        <v>130.00040322164583</v>
+        <v>191</v>
       </c>
       <c r="BE19">
-        <v>125.78164564638354</v>
+        <v>172</v>
       </c>
       <c r="BF19">
-        <v>121.34126793481467</v>
+        <v>194</v>
       </c>
       <c r="BG19">
-        <v>101.8424847432793</v>
+        <v>196</v>
       </c>
       <c r="BH19">
-        <v>99.740057431169205</v>
+        <v>196</v>
       </c>
       <c r="BI19">
-        <v>106.15293681009403</v>
+        <v>236</v>
       </c>
       <c r="BJ19">
-        <v>102.4182895596909</v>
+        <v>235</v>
       </c>
       <c r="BK19">
-        <v>101.05809856660912</v>
+        <v>229</v>
       </c>
       <c r="BL19">
-        <v>99.646304612975783</v>
+        <v>243</v>
       </c>
       <c r="BM19">
-        <v>96.477422021366223</v>
+        <v>264</v>
       </c>
       <c r="BN19">
-        <v>105.00212575233934</v>
+        <v>272</v>
       </c>
       <c r="BO19">
-        <v>97.832320246932028</v>
+        <v>237</v>
       </c>
       <c r="BP19">
-        <v>97.650077942897553</v>
+        <v>211</v>
       </c>
       <c r="BQ19">
-        <v>87.417081045774282</v>
+        <v>180</v>
       </c>
       <c r="BR19">
-        <v>91.859332573342016</v>
+        <v>201</v>
       </c>
       <c r="BS19">
-        <v>93.677125189037824</v>
+        <v>204</v>
       </c>
       <c r="BT19">
-        <v>101.82128245639024</v>
+        <v>188</v>
       </c>
       <c r="BU19">
-        <v>98.117452001968104</v>
+        <v>235</v>
       </c>
       <c r="BV19">
-        <v>101.5500237044058</v>
+        <v>227</v>
       </c>
       <c r="BW19">
-        <v>112.87466949488169</v>
+        <v>234</v>
       </c>
       <c r="BX19">
-        <v>104.14147907825084</v>
+        <v>264</v>
       </c>
       <c r="BY19">
-        <v>103.75481912649823</v>
+        <v>302</v>
       </c>
       <c r="BZ19">
-        <v>114.43289567660507</v>
+        <v>293</v>
       </c>
       <c r="CA19">
-        <v>100.57467577668243</v>
+        <v>259</v>
       </c>
       <c r="CB19">
-        <v>95.838124167500794</v>
+        <v>229</v>
       </c>
       <c r="CC19">
-        <v>94.356272353925078</v>
+        <v>203</v>
       </c>
       <c r="CD19">
-        <v>91.944474503903976</v>
+        <v>229</v>
       </c>
       <c r="CE19">
-        <v>99.508130080644079</v>
+        <v>242</v>
       </c>
       <c r="CF19">
-        <v>100.48678727786546</v>
+        <v>233</v>
       </c>
       <c r="CG19">
-        <v>100.14040925450179</v>
+        <v>267</v>
       </c>
       <c r="CH19">
-        <v>105.10820796940389</v>
+        <v>269</v>
       </c>
       <c r="CI19">
-        <v>100.07736060909681</v>
-      </c>
-    </row>
-    <row r="20" spans="2:87" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" t="str">
-        <f>"^"&amp;C16</f>
-        <v>^avg_hits.model</v>
+        <v>270</v>
+      </c>
+      <c r="CJ19">
+        <v>315</v>
+      </c>
+      <c r="CK19">
+        <v>364</v>
+      </c>
+      <c r="CL19">
+        <v>347</v>
+      </c>
+      <c r="CM19">
+        <v>312</v>
+      </c>
+      <c r="CN19">
+        <v>274</v>
+      </c>
+      <c r="CO19">
+        <v>237</v>
+      </c>
+      <c r="CP19">
+        <v>278</v>
+      </c>
+      <c r="CQ19">
+        <v>284</v>
+      </c>
+      <c r="CR19">
+        <v>277</v>
+      </c>
+      <c r="CS19">
+        <v>317</v>
+      </c>
+      <c r="CT19">
+        <v>313</v>
+      </c>
+      <c r="CU19">
+        <v>318</v>
+      </c>
+      <c r="CV19">
+        <v>374</v>
+      </c>
+      <c r="CW19">
+        <v>413</v>
+      </c>
+      <c r="CX19">
+        <v>405</v>
+      </c>
+      <c r="CY19">
+        <v>355</v>
+      </c>
+      <c r="CZ19">
+        <v>306</v>
+      </c>
+      <c r="DA19">
+        <v>271</v>
+      </c>
+      <c r="DB19">
+        <v>306</v>
+      </c>
+      <c r="DC19">
+        <v>315</v>
+      </c>
+      <c r="DD19">
+        <v>301</v>
+      </c>
+      <c r="DE19">
+        <v>356</v>
+      </c>
+      <c r="DF19">
+        <v>348</v>
+      </c>
+      <c r="DG19">
+        <v>355</v>
+      </c>
+      <c r="DH19">
+        <v>422</v>
+      </c>
+      <c r="DI19">
+        <v>465</v>
+      </c>
+      <c r="DJ19">
+        <v>467</v>
+      </c>
+      <c r="DK19">
+        <v>404</v>
+      </c>
+      <c r="DL19">
+        <v>347</v>
+      </c>
+      <c r="DM19">
+        <v>305</v>
+      </c>
+      <c r="DN19">
+        <v>336</v>
+      </c>
+      <c r="DO19">
+        <v>340</v>
+      </c>
+      <c r="DP19">
+        <v>318</v>
+      </c>
+      <c r="DQ19">
+        <v>362</v>
+      </c>
+      <c r="DR19">
+        <v>348</v>
+      </c>
+      <c r="DS19">
+        <v>363</v>
+      </c>
+      <c r="DT19">
+        <v>435</v>
+      </c>
+      <c r="DU19">
+        <v>491</v>
+      </c>
+      <c r="DV19">
+        <v>505</v>
+      </c>
+      <c r="DW19">
+        <v>404</v>
+      </c>
+      <c r="DX19">
+        <v>359</v>
+      </c>
+      <c r="DY19">
+        <v>310</v>
+      </c>
+      <c r="DZ19">
+        <v>337</v>
+      </c>
+      <c r="EA19">
+        <v>360</v>
+      </c>
+      <c r="EB19">
+        <v>342</v>
+      </c>
+      <c r="EC19">
+        <v>406</v>
+      </c>
+      <c r="ED19">
+        <v>396</v>
+      </c>
+      <c r="EE19">
+        <v>420</v>
+      </c>
+      <c r="EF19">
+        <v>472</v>
+      </c>
+      <c r="EG19">
+        <v>548</v>
+      </c>
+      <c r="EH19">
+        <v>559</v>
+      </c>
+      <c r="EI19">
+        <v>463</v>
+      </c>
+      <c r="EJ19">
+        <v>407</v>
+      </c>
+      <c r="EK19">
+        <v>362</v>
+      </c>
+      <c r="EL19">
+        <v>405</v>
+      </c>
+      <c r="EM19">
+        <v>417</v>
+      </c>
+      <c r="EN19">
+        <v>391</v>
+      </c>
+      <c r="EO19">
+        <v>419</v>
+      </c>
+      <c r="EP19">
+        <v>461</v>
+      </c>
+      <c r="EQ19">
+        <v>472</v>
+      </c>
+      <c r="ER19">
+        <v>535</v>
+      </c>
+      <c r="ES19">
+        <v>622</v>
+      </c>
+      <c r="ET19">
+        <v>606</v>
+      </c>
+      <c r="EU19">
+        <v>508</v>
+      </c>
+      <c r="EV19">
+        <v>461</v>
+      </c>
+      <c r="EW19">
+        <v>390</v>
+      </c>
+      <c r="EX19">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="20" spans="2:154" x14ac:dyDescent="0.3">
+      <c r="B20" s="14" t="str" cm="1">
+        <f t="array" ref="B20:D32">_xll.RScript.Params(C18, TRUE, TRUE)</f>
+        <v>y</v>
+      </c>
+      <c r="C20" s="14" t="str">
+        <v>symbol</v>
+      </c>
+      <c r="D20" s="14" t="str">
+        <v>&lt;missing&gt;</v>
       </c>
       <c r="J20" t="str">
         <v>fitted</v>
       </c>
     </row>
-    <row r="21" spans="2:87" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:87" x14ac:dyDescent="0.3">
-      <c r="K22" t="str">
-        <f>B23</f>
-        <v>p</v>
-      </c>
-    </row>
-    <row r="23" spans="2:87" x14ac:dyDescent="0.3">
-      <c r="B23" t="str" cm="1">
-        <f t="array" ref="B23">_xll.RScript.Function("p",C19,B20:C21)</f>
-        <v>p</v>
-      </c>
-      <c r="C23" t="str" cm="1">
-        <f t="array" ref="C23:C24">_xll.Model.Results(B23)</f>
-        <v>pred</v>
-      </c>
-      <c r="D23" cm="1">
-        <f t="array" ref="D23:D25">_xll.Model.Result(B23,C23)</f>
-        <v>101.87213943349589</v>
+    <row r="21" spans="2:154" x14ac:dyDescent="0.3">
+      <c r="B21" s="14" t="str">
+        <v>order</v>
+      </c>
+      <c r="C21" s="14" t="str">
+        <v>language</v>
+      </c>
+      <c r="D21" s="14" t="str">
+        <v>c(0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="22" spans="2:154" x14ac:dyDescent="0.3">
+      <c r="B22" s="14" t="str">
+        <v>seasonal</v>
+      </c>
+      <c r="C22" s="14" t="str">
+        <v>language</v>
+      </c>
+      <c r="D22" s="14" t="str">
+        <v>c(0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="23" spans="2:154" x14ac:dyDescent="0.3">
+      <c r="B23" s="14" t="str">
+        <v>xreg</v>
+      </c>
+      <c r="C23" s="14" t="str">
+        <v>NULL</v>
+      </c>
+      <c r="D23" s="14" t="str">
+        <v>&lt;missing&gt;</v>
       </c>
       <c r="J23" t="str" cm="1">
         <f t="array" ref="J23:J32">_xll.Model.Result($C$16,J16)</f>
         <v>phi</v>
       </c>
     </row>
-    <row r="24" spans="2:87" x14ac:dyDescent="0.3">
-      <c r="C24" t="str">
-        <v>se</v>
-      </c>
-      <c r="D24">
-        <v>103.34985249955517</v>
+    <row r="24" spans="2:154" x14ac:dyDescent="0.3">
+      <c r="B24" s="14" t="str">
+        <v>include.mean</v>
+      </c>
+      <c r="C24" s="14" t="str">
+        <v>logical</v>
+      </c>
+      <c r="D24" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="J24" t="str">
         <v>theta</v>
       </c>
     </row>
-    <row r="25" spans="2:87" x14ac:dyDescent="0.3">
-      <c r="D25">
-        <v>104.56651266732453</v>
+    <row r="25" spans="2:154" x14ac:dyDescent="0.3">
+      <c r="B25" s="14" t="str">
+        <v>include.drift</v>
+      </c>
+      <c r="C25" s="14" t="str">
+        <v>logical</v>
+      </c>
+      <c r="D25" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="J25" t="str">
         <v>Delta</v>
       </c>
     </row>
-    <row r="26" spans="2:87" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:154" x14ac:dyDescent="0.3">
+      <c r="B26" s="14" t="str">
+        <v>include.constant</v>
+      </c>
+      <c r="C26" s="14" t="str">
+        <v>symbol</v>
+      </c>
+      <c r="D26" s="14" t="str">
+        <v>&lt;missing&gt;</v>
+      </c>
       <c r="J26" t="str">
         <v>Z</v>
       </c>
     </row>
-    <row r="27" spans="2:87" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>174</v>
-      </c>
-      <c r="E27" t="str" cm="1">
-        <f t="array" ref="E27">_xll.RScript.Evaluate(B27)</f>
-        <v>prediction</v>
-      </c>
-      <c r="F27" t="str" cm="1">
-        <f t="array" ref="F27:F28">_xll.RScript.Evaluate(E27)</f>
-        <v>pred</v>
-      </c>
-      <c r="G27" cm="1">
-        <f t="array" ref="G27:G30">_xll.RScript.Evaluate(E27&amp;"$"&amp;F27)</f>
-        <v>101.87213943349589</v>
+    <row r="27" spans="2:154" x14ac:dyDescent="0.3">
+      <c r="B27" s="14" t="str">
+        <v>lambda</v>
+      </c>
+      <c r="C27" s="14" t="str">
+        <v>language</v>
+      </c>
+      <c r="D27" s="14" t="str">
+        <v>model$lambda</v>
       </c>
       <c r="J27" t="str">
         <v>a</v>
       </c>
     </row>
-    <row r="28" spans="2:87" x14ac:dyDescent="0.3">
-      <c r="F28" t="str">
-        <v>se</v>
-      </c>
-      <c r="G28">
-        <v>103.34985249955517</v>
+    <row r="28" spans="2:154" x14ac:dyDescent="0.3">
+      <c r="B28" s="14" t="str">
+        <v>biasadj</v>
+      </c>
+      <c r="C28" s="14" t="str">
+        <v>logical</v>
+      </c>
+      <c r="D28" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="J28" t="str">
         <v>P</v>
       </c>
     </row>
-    <row r="29" spans="2:87" x14ac:dyDescent="0.3">
-      <c r="G29">
-        <v>104.56651266732453</v>
+    <row r="29" spans="2:154" x14ac:dyDescent="0.3">
+      <c r="B29" s="14" t="str">
+        <v>method</v>
+      </c>
+      <c r="C29" s="14" t="str">
+        <v>language</v>
+      </c>
+      <c r="D29" s="14" t="str">
+        <v>c("CSS-ML", "ML", "CSS")</v>
       </c>
       <c r="J29" t="str">
         <v>T</v>
       </c>
     </row>
-    <row r="30" spans="2:87" x14ac:dyDescent="0.3">
-      <c r="G30">
-        <v>105.56823756090223</v>
+    <row r="30" spans="2:154" x14ac:dyDescent="0.3">
+      <c r="B30" s="14" t="str">
+        <v>model</v>
+      </c>
+      <c r="C30" s="14" t="str">
+        <v>NULL</v>
+      </c>
+      <c r="D30" s="14" t="str">
+        <v>&lt;missing&gt;</v>
       </c>
       <c r="J30" t="str">
         <v>V</v>
       </c>
     </row>
-    <row r="31" spans="2:87" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:154" x14ac:dyDescent="0.3">
+      <c r="B31" s="14" t="str">
+        <v>x</v>
+      </c>
+      <c r="C31" s="14" t="str">
+        <v>symbol</v>
+      </c>
+      <c r="D31" s="14" t="str">
+        <v>y</v>
+      </c>
       <c r="J31" t="str">
         <v>h</v>
       </c>
     </row>
-    <row r="32" spans="2:87" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:154" x14ac:dyDescent="0.3">
+      <c r="B32" s="14" t="str">
+        <v>...</v>
+      </c>
+      <c r="C32" s="14" t="str">
+        <v>symbol</v>
+      </c>
+      <c r="D32" s="14" t="str">
+        <v>&lt;missing&gt;</v>
+      </c>
       <c r="J32" t="str">
         <v>Pn</v>
       </c>
@@ -5033,24 +5336,676 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7421D342-395F-40C0-BF8A-CEB5770C5051}">
+  <dimension ref="B2:CI32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="J2" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J3" t="str" cm="1">
+        <f t="array" ref="J3:J20">_xll.Model.Results(C16)</f>
+        <v>coef</v>
+      </c>
+      <c r="N3" t="str" cm="1">
+        <f t="array" ref="N3:P4">TRANSPOSE(_xll.Model.Result($C$16,J3,,TRUE))</f>
+        <v>Index</v>
+      </c>
+      <c r="O3" t="str">
+        <v>ar1</v>
+      </c>
+      <c r="P3" t="str">
+        <v>intercept</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="str" cm="1">
+        <f t="array" ref="C4">_xll.RScript.CreateVector(tAvgHits[[#Headers],[AvgHits]],tAvgHits[AvgHits])</f>
+        <v>AvgHits</v>
+      </c>
+      <c r="J4" t="str">
+        <v>sigma2</v>
+      </c>
+      <c r="K4" cm="1">
+        <f t="array" ref="K4">TRANSPOSE(_xll.Model.Result($C$16,J4))</f>
+        <v>57.608145562021065</v>
+      </c>
+      <c r="N4" t="str">
+        <v>avg_hits.model$coef</v>
+      </c>
+      <c r="O4">
+        <v>0.82333992688711166</v>
+      </c>
+      <c r="P4">
+        <v>110.23686520327972</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" t="str" cm="1">
+        <f t="array" ref="F5:H7">TRANSPOSE(_xll.Model.Result($C$16,J5, , TRUE))</f>
+        <v>Index</v>
+      </c>
+      <c r="G5" t="str">
+        <v>ar1</v>
+      </c>
+      <c r="H5" t="str">
+        <v>intercept</v>
+      </c>
+      <c r="J5" t="str">
+        <v>var.coef</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="F6" t="str">
+        <v>ar1</v>
+      </c>
+      <c r="G6">
+        <v>4.2644842633925246E-3</v>
+      </c>
+      <c r="H6">
+        <v>-9.4207541224879086E-3</v>
+      </c>
+      <c r="J6" t="str">
+        <v>mask</v>
+      </c>
+      <c r="K6" t="b" cm="1">
+        <f t="array" ref="K6:L6">TRANSPOSE(_xll.Model.Result($C$16,J6))</f>
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="F7" t="str">
+        <v>intercept</v>
+      </c>
+      <c r="G7">
+        <v>-9.4207541224879086E-3</v>
+      </c>
+      <c r="H7">
+        <v>23.678051608823413</v>
+      </c>
+      <c r="J7" t="str">
+        <v>loglik</v>
+      </c>
+      <c r="K7" cm="1">
+        <f t="array" ref="K7">TRANSPOSE(_xll.Model.Result($C$16,J7))</f>
+        <v>-264.81438881475191</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="J8" t="str">
+        <v>aic</v>
+      </c>
+      <c r="K8" t="b" cm="1">
+        <f t="array" ref="K8">TRANSPOSE(_xll.Model.Result($C$16,J8))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="J9" t="str">
+        <v>arma</v>
+      </c>
+      <c r="K9" cm="1">
+        <f t="array" ref="K9:Q9">TRANSPOSE(_xll.Model.Result($C$16,J9))</f>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="J10" t="str">
+        <v>residuals</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="J11" t="str">
+        <v>call</v>
+      </c>
+      <c r="K11" t="str" cm="1">
+        <f t="array" ref="K11">TRANSPOSE(_xll.Model.Result($C$16,J11))</f>
+        <v>Arima(y = AvgHits, order = c(1, 0, 0), method = "CSS")</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="J12" t="str">
+        <v>series</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J13" t="str">
+        <v>code</v>
+      </c>
+      <c r="K13" cm="1">
+        <f t="array" ref="K13">TRANSPOSE(_xll.Model.Result($C$16,J13))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J14" t="str">
+        <v>n.cond</v>
+      </c>
+      <c r="K14" cm="1">
+        <f t="array" ref="K14">TRANSPOSE(_xll.Model.Result($C$16,J14))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J15" t="str">
+        <v>nobs</v>
+      </c>
+      <c r="K15" cm="1">
+        <f t="array" ref="K15">TRANSPOSE(_xll.Model.Result($C$16,J15))</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="6" t="str" cm="1">
+        <f t="array" ref="C16">_xll.Forecast.Arima(C3,C4,B5:C13)</f>
+        <v>avg_hits.model</v>
+      </c>
+      <c r="J16" t="str">
+        <v>model</v>
+      </c>
+    </row>
+    <row r="17" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="J17" t="str">
+        <v>aicc</v>
+      </c>
+      <c r="K17" t="str" cm="1">
+        <f t="array" ref="K17">TRANSPOSE(_xll.Model.Result($C$16,J17))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="J18" t="str">
+        <v>bic</v>
+      </c>
+      <c r="K18" t="str" cm="1">
+        <f t="array" ref="K18">TRANSPOSE(_xll.Model.Result($C$16,J18))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" t="str">
+        <v>x</v>
+      </c>
+      <c r="K19" cm="1">
+        <f t="array" ref="K19:CI19">TRANSPOSE(_xll.Model.Result($C$16,J19))</f>
+        <v>105.33376112622406</v>
+      </c>
+      <c r="L19">
+        <v>111.79410633687822</v>
+      </c>
+      <c r="M19">
+        <v>95.197645971547047</v>
+      </c>
+      <c r="N19">
+        <v>89.47529059071762</v>
+      </c>
+      <c r="O19">
+        <v>85.572647131307875</v>
+      </c>
+      <c r="P19">
+        <v>102.83015305596356</v>
+      </c>
+      <c r="Q19">
+        <v>106.80684414070258</v>
+      </c>
+      <c r="R19">
+        <v>113.72246749485991</v>
+      </c>
+      <c r="S19">
+        <v>119.60061562918311</v>
+      </c>
+      <c r="T19">
+        <v>115.75388729149387</v>
+      </c>
+      <c r="U19">
+        <v>108.1459323527514</v>
+      </c>
+      <c r="V19">
+        <v>110.96292941434531</v>
+      </c>
+      <c r="W19">
+        <v>113.24495065834257</v>
+      </c>
+      <c r="X19">
+        <v>102.10173545572339</v>
+      </c>
+      <c r="Y19">
+        <v>113.51276258544792</v>
+      </c>
+      <c r="Z19">
+        <v>117.59963548035714</v>
+      </c>
+      <c r="AA19">
+        <v>101.34340836746375</v>
+      </c>
+      <c r="AB19">
+        <v>94.418734018227198</v>
+      </c>
+      <c r="AC19">
+        <v>112.22617802852734</v>
+      </c>
+      <c r="AD19">
+        <v>113.36319780653764</v>
+      </c>
+      <c r="AE19">
+        <v>122.54535551176068</v>
+      </c>
+      <c r="AF19">
+        <v>117.66423795893876</v>
+      </c>
+      <c r="AG19">
+        <v>108.23991357952055</v>
+      </c>
+      <c r="AH19">
+        <v>108.22563216606954</v>
+      </c>
+      <c r="AI19">
+        <v>113.16547821687877</v>
+      </c>
+      <c r="AJ19">
+        <v>117.44826364930336</v>
+      </c>
+      <c r="AK19">
+        <v>114.35107161038742</v>
+      </c>
+      <c r="AL19">
+        <v>107.83465340957744</v>
+      </c>
+      <c r="AM19">
+        <v>126.63979793933468</v>
+      </c>
+      <c r="AN19">
+        <v>121.91707488895689</v>
+      </c>
+      <c r="AO19">
+        <v>111.76847127438168</v>
+      </c>
+      <c r="AP19">
+        <v>116.34219302568984</v>
+      </c>
+      <c r="AQ19">
+        <v>133.59735425075155</v>
+      </c>
+      <c r="AR19">
+        <v>134.42371509249278</v>
+      </c>
+      <c r="AS19">
+        <v>130.79268408149582</v>
+      </c>
+      <c r="AT19">
+        <v>133.69720367666622</v>
+      </c>
+      <c r="AU19">
+        <v>127.55353870819636</v>
+      </c>
+      <c r="AV19">
+        <v>132.77393265679262</v>
+      </c>
+      <c r="AW19">
+        <v>138.81931269995454</v>
+      </c>
+      <c r="AX19">
+        <v>133.23348093769877</v>
+      </c>
+      <c r="AY19">
+        <v>121.02369692404856</v>
+      </c>
+      <c r="AZ19">
+        <v>129.59914532348267</v>
+      </c>
+      <c r="BA19">
+        <v>132.83565006687212</v>
+      </c>
+      <c r="BB19">
+        <v>130.21723290135554</v>
+      </c>
+      <c r="BC19">
+        <v>127.44630923574098</v>
+      </c>
+      <c r="BD19">
+        <v>130.00040322164583</v>
+      </c>
+      <c r="BE19">
+        <v>125.78164564638354</v>
+      </c>
+      <c r="BF19">
+        <v>121.34126793481467</v>
+      </c>
+      <c r="BG19">
+        <v>101.8424847432793</v>
+      </c>
+      <c r="BH19">
+        <v>99.740057431169205</v>
+      </c>
+      <c r="BI19">
+        <v>106.15293681009403</v>
+      </c>
+      <c r="BJ19">
+        <v>102.4182895596909</v>
+      </c>
+      <c r="BK19">
+        <v>101.05809856660912</v>
+      </c>
+      <c r="BL19">
+        <v>99.646304612975783</v>
+      </c>
+      <c r="BM19">
+        <v>96.477422021366223</v>
+      </c>
+      <c r="BN19">
+        <v>105.00212575233934</v>
+      </c>
+      <c r="BO19">
+        <v>97.832320246932028</v>
+      </c>
+      <c r="BP19">
+        <v>97.650077942897553</v>
+      </c>
+      <c r="BQ19">
+        <v>87.417081045774282</v>
+      </c>
+      <c r="BR19">
+        <v>91.859332573342016</v>
+      </c>
+      <c r="BS19">
+        <v>93.677125189037824</v>
+      </c>
+      <c r="BT19">
+        <v>101.82128245639024</v>
+      </c>
+      <c r="BU19">
+        <v>98.117452001968104</v>
+      </c>
+      <c r="BV19">
+        <v>101.5500237044058</v>
+      </c>
+      <c r="BW19">
+        <v>112.87466949488169</v>
+      </c>
+      <c r="BX19">
+        <v>104.14147907825084</v>
+      </c>
+      <c r="BY19">
+        <v>103.75481912649823</v>
+      </c>
+      <c r="BZ19">
+        <v>114.43289567660507</v>
+      </c>
+      <c r="CA19">
+        <v>100.57467577668243</v>
+      </c>
+      <c r="CB19">
+        <v>95.838124167500794</v>
+      </c>
+      <c r="CC19">
+        <v>94.356272353925078</v>
+      </c>
+      <c r="CD19">
+        <v>91.944474503903976</v>
+      </c>
+      <c r="CE19">
+        <v>99.508130080644079</v>
+      </c>
+      <c r="CF19">
+        <v>100.48678727786546</v>
+      </c>
+      <c r="CG19">
+        <v>100.14040925450179</v>
+      </c>
+      <c r="CH19">
+        <v>105.10820796940389</v>
+      </c>
+      <c r="CI19">
+        <v>100.07736060909681</v>
+      </c>
+    </row>
+    <row r="20" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" t="str">
+        <f>"^"&amp;C16</f>
+        <v>^avg_hits.model</v>
+      </c>
+      <c r="J20" t="str">
+        <v>fitted</v>
+      </c>
+    </row>
+    <row r="21" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="K22" t="str">
+        <f>B23</f>
+        <v>p</v>
+      </c>
+    </row>
+    <row r="23" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="B23" t="str" cm="1">
+        <f t="array" ref="B23">_xll.RScript.Function("p",C19,B20:C21)</f>
+        <v>p</v>
+      </c>
+      <c r="C23" t="str" cm="1">
+        <f t="array" ref="C23:C24">_xll.Model.Results(B23)</f>
+        <v>pred</v>
+      </c>
+      <c r="D23" cm="1">
+        <f t="array" ref="D23:D25">_xll.Model.Result(B23,C23)</f>
+        <v>101.87213943349589</v>
+      </c>
+      <c r="J23" t="str" cm="1">
+        <f t="array" ref="J23:J32">_xll.Model.Result($C$16,J16)</f>
+        <v>phi</v>
+      </c>
+    </row>
+    <row r="24" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="C24" t="str">
+        <v>se</v>
+      </c>
+      <c r="D24">
+        <v>103.34985249955517</v>
+      </c>
+      <c r="J24" t="str">
+        <v>theta</v>
+      </c>
+    </row>
+    <row r="25" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>104.56651266732453</v>
+      </c>
+      <c r="J25" t="str">
+        <v>Delta</v>
+      </c>
+    </row>
+    <row r="26" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="J26" t="str">
+        <v>Z</v>
+      </c>
+    </row>
+    <row r="27" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" t="str" cm="1">
+        <f t="array" ref="E27">_xll.RScript.Evaluate(B27)</f>
+        <v>prediction</v>
+      </c>
+      <c r="F27" t="str" cm="1">
+        <f t="array" ref="F27:F28">_xll.RScript.Evaluate(E27)</f>
+        <v>pred</v>
+      </c>
+      <c r="G27" cm="1">
+        <f t="array" ref="G27:G30">_xll.RScript.Evaluate(E27&amp;"$"&amp;F27)</f>
+        <v>101.87213943349589</v>
+      </c>
+      <c r="J27" t="str">
+        <v>a</v>
+      </c>
+    </row>
+    <row r="28" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="F28" t="str">
+        <v>se</v>
+      </c>
+      <c r="G28">
+        <v>103.34985249955517</v>
+      </c>
+      <c r="J28" t="str">
+        <v>P</v>
+      </c>
+    </row>
+    <row r="29" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>104.56651266732453</v>
+      </c>
+      <c r="J29" t="str">
+        <v>T</v>
+      </c>
+    </row>
+    <row r="30" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>105.56823756090223</v>
+      </c>
+      <c r="J30" t="str">
+        <v>V</v>
+      </c>
+    </row>
+    <row r="31" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="J31" t="str">
+        <v>h</v>
+      </c>
+    </row>
+    <row r="32" spans="2:87" x14ac:dyDescent="0.3">
+      <c r="J32" t="str">
+        <v>Pn</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BD50DD-7652-40B9-95EC-9B1CF9588E72}">
   <dimension ref="B2:DE59"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="25"/>
       <c r="H2" s="7" t="s">
         <v>28</v>
       </c>
@@ -5248,10 +6203,9 @@
         <v>88</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="6" t="str" cm="1">
-        <f t="array" ref="J18">_xll.Model.Result($F$3,G18)</f>
-        <v xml:space="preserve">Exception: Error: object 'AutoARIMA' not found
-</v>
+      <c r="J18" s="6" cm="1">
+        <f t="array" ref="J18">_xll.Model.Result($F$3,H18)</f>
+        <v>514.29947157432991</v>
       </c>
     </row>
     <row r="19" spans="2:109" x14ac:dyDescent="0.3">
@@ -5299,11 +6253,11 @@
       </c>
     </row>
     <row r="22" spans="2:109" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" t="s">
-        <v>189</v>
+      <c r="B22" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="H22" s="6"/>
     </row>
@@ -5614,26 +6568,26 @@
       </c>
     </row>
     <row r="24" spans="2:109" x14ac:dyDescent="0.3">
-      <c r="B24" t="str" cm="1">
+      <c r="B24" s="6" t="str" cm="1">
         <f t="array" ref="B24:D59">_xll.RScript.Params(C22, TRUE, TRUE)</f>
         <v>y</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24" s="6" t="str">
         <v>symbol</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D24" s="6" t="str">
         <v>&lt;missing&gt;</v>
       </c>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="2:109" x14ac:dyDescent="0.3">
-      <c r="B25" t="str">
+      <c r="B25" s="6" t="str">
         <v>d</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C25" s="6" t="str">
         <v>logical</v>
       </c>
-      <c r="D25" t="b">
+      <c r="D25" s="6" t="b">
         <v>1</v>
       </c>
       <c r="H25" s="6" t="s">
@@ -5645,25 +6599,25 @@
       </c>
     </row>
     <row r="26" spans="2:109" x14ac:dyDescent="0.3">
-      <c r="B26" t="str">
+      <c r="B26" s="6" t="str">
         <v>D</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26" s="6" t="str">
         <v>logical</v>
       </c>
-      <c r="D26" t="b">
+      <c r="D26" s="6" t="b">
         <v>1</v>
       </c>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="2:109" x14ac:dyDescent="0.3">
-      <c r="B27" t="str">
+      <c r="B27" s="6" t="str">
         <v>max.p</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27" s="6" t="str">
         <v>double</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="6">
         <v>5</v>
       </c>
       <c r="H27" s="6" t="s">
@@ -5675,25 +6629,25 @@
       </c>
     </row>
     <row r="28" spans="2:109" x14ac:dyDescent="0.3">
-      <c r="B28" t="str">
+      <c r="B28" s="6" t="str">
         <v>max.q</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C28" s="6" t="str">
         <v>double</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="6">
         <v>5</v>
       </c>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="2:109" x14ac:dyDescent="0.3">
-      <c r="B29" t="str">
+      <c r="B29" s="6" t="str">
         <v>max.P</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29" s="6" t="str">
         <v>double</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="6">
         <v>2</v>
       </c>
       <c r="H29" s="6" t="s">
@@ -5705,25 +6659,25 @@
       </c>
     </row>
     <row r="30" spans="2:109" x14ac:dyDescent="0.3">
-      <c r="B30" t="str">
+      <c r="B30" s="6" t="str">
         <v>max.Q</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C30" s="6" t="str">
         <v>double</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="6">
         <v>2</v>
       </c>
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="2:109" x14ac:dyDescent="0.3">
-      <c r="B31" t="str">
+      <c r="B31" s="6" t="str">
         <v>max.order</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C31" s="6" t="str">
         <v>double</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="6">
         <v>5</v>
       </c>
       <c r="H31" s="6" t="s">
@@ -5735,25 +6689,25 @@
       </c>
     </row>
     <row r="32" spans="2:109" x14ac:dyDescent="0.3">
-      <c r="B32" t="str">
+      <c r="B32" s="6" t="str">
         <v>max.d</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C32" s="6" t="str">
         <v>double</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="6">
         <v>2</v>
       </c>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="2:109" x14ac:dyDescent="0.3">
-      <c r="B33" t="str">
+      <c r="B33" s="6" t="str">
         <v>max.D</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C33" s="6" t="str">
         <v>double</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="6">
         <v>1</v>
       </c>
       <c r="H33" s="6" t="s">
@@ -5765,25 +6719,25 @@
       </c>
     </row>
     <row r="34" spans="2:109" x14ac:dyDescent="0.3">
-      <c r="B34" t="str">
+      <c r="B34" s="6" t="str">
         <v>start.p</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C34" s="6" t="str">
         <v>double</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="6">
         <v>2</v>
       </c>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="2:109" x14ac:dyDescent="0.3">
-      <c r="B35" t="str">
+      <c r="B35" s="6" t="str">
         <v>start.q</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C35" s="6" t="str">
         <v>double</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="6">
         <v>2</v>
       </c>
       <c r="H35" s="6" t="s">
@@ -5822,25 +6776,25 @@
       </c>
     </row>
     <row r="36" spans="2:109" x14ac:dyDescent="0.3">
-      <c r="B36" t="str">
+      <c r="B36" s="6" t="str">
         <v>start.P</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C36" s="6" t="str">
         <v>double</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="6">
         <v>1</v>
       </c>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="2:109" x14ac:dyDescent="0.3">
-      <c r="B37" t="str">
+      <c r="B37" s="6" t="str">
         <v>start.Q</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C37" s="6" t="str">
         <v>double</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="6">
         <v>1</v>
       </c>
       <c r="H37" s="6" t="s">
@@ -5852,25 +6806,25 @@
       </c>
     </row>
     <row r="38" spans="2:109" x14ac:dyDescent="0.3">
-      <c r="B38" t="str">
+      <c r="B38" s="6" t="str">
         <v>stationary</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C38" s="6" t="str">
         <v>logical</v>
       </c>
-      <c r="D38" t="b">
+      <c r="D38" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="2:109" x14ac:dyDescent="0.3">
-      <c r="B39" t="str">
+      <c r="B39" s="6" t="str">
         <v>seasonal</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C39" s="6" t="str">
         <v>logical</v>
       </c>
-      <c r="D39" t="b">
+      <c r="D39" s="6" t="b">
         <v>1</v>
       </c>
       <c r="H39" s="6" t="s">
@@ -5882,25 +6836,25 @@
       </c>
     </row>
     <row r="40" spans="2:109" x14ac:dyDescent="0.3">
-      <c r="B40" t="str">
+      <c r="B40" s="6" t="str">
         <v>ic</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C40" s="6" t="str">
         <v>language</v>
       </c>
-      <c r="D40" t="str">
+      <c r="D40" s="6" t="str">
         <v>c("aicc", "aic", "bic")</v>
       </c>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="2:109" x14ac:dyDescent="0.3">
-      <c r="B41" t="str">
+      <c r="B41" s="6" t="str">
         <v>stepwise</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C41" s="6" t="str">
         <v>logical</v>
       </c>
-      <c r="D41" t="b">
+      <c r="D41" s="6" t="b">
         <v>1</v>
       </c>
       <c r="H41" s="6" t="s">
@@ -6209,25 +7163,25 @@
       </c>
     </row>
     <row r="42" spans="2:109" x14ac:dyDescent="0.3">
-      <c r="B42" t="str">
+      <c r="B42" s="6" t="str">
         <v>nmodels</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C42" s="6" t="str">
         <v>double</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="6">
         <v>94</v>
       </c>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="2:109" x14ac:dyDescent="0.3">
-      <c r="B43" t="str">
+      <c r="B43" s="6" t="str">
         <v>trace</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C43" s="6" t="str">
         <v>logical</v>
       </c>
-      <c r="D43" t="b">
+      <c r="D43" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H43" s="6" t="s">
@@ -6536,178 +7490,178 @@
       </c>
     </row>
     <row r="44" spans="2:109" x14ac:dyDescent="0.3">
-      <c r="B44" t="str">
+      <c r="B44" s="6" t="str">
         <v>approximation</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C44" s="6" t="str">
         <v>language</v>
       </c>
-      <c r="D44" t="str">
+      <c r="D44" s="6" t="str">
         <v>(length(x) &gt; 150 | frequency(x) &gt; 12)</v>
       </c>
     </row>
     <row r="45" spans="2:109" x14ac:dyDescent="0.3">
-      <c r="B45" t="str">
+      <c r="B45" s="6" t="str">
         <v>method</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C45" s="6" t="str">
         <v>NULL</v>
       </c>
-      <c r="D45" t="str">
+      <c r="D45" s="6" t="str">
         <v>&lt;missing&gt;</v>
       </c>
     </row>
     <row r="46" spans="2:109" x14ac:dyDescent="0.3">
-      <c r="B46" t="str">
+      <c r="B46" s="6" t="str">
         <v>truncate</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C46" s="6" t="str">
         <v>NULL</v>
       </c>
-      <c r="D46" t="str">
+      <c r="D46" s="6" t="str">
         <v>&lt;missing&gt;</v>
       </c>
     </row>
     <row r="47" spans="2:109" x14ac:dyDescent="0.3">
-      <c r="B47" t="str">
+      <c r="B47" s="6" t="str">
         <v>xreg</v>
       </c>
-      <c r="C47" t="str">
+      <c r="C47" s="6" t="str">
         <v>NULL</v>
       </c>
-      <c r="D47" t="str">
+      <c r="D47" s="6" t="str">
         <v>&lt;missing&gt;</v>
       </c>
     </row>
     <row r="48" spans="2:109" x14ac:dyDescent="0.3">
-      <c r="B48" t="str">
+      <c r="B48" s="6" t="str">
         <v>test</v>
       </c>
-      <c r="C48" t="str">
+      <c r="C48" s="6" t="str">
         <v>language</v>
       </c>
-      <c r="D48" t="str">
+      <c r="D48" s="6" t="str">
         <v>c("kpss", "adf", "pp")</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" t="str">
+      <c r="B49" s="6" t="str">
         <v>test.args</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C49" s="6" t="str">
         <v>language</v>
       </c>
-      <c r="D49" t="str">
+      <c r="D49" s="6" t="str">
         <v>list()</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" t="str">
+      <c r="B50" s="6" t="str">
         <v>seasonal.test</v>
       </c>
-      <c r="C50" t="str">
+      <c r="C50" s="6" t="str">
         <v>language</v>
       </c>
-      <c r="D50" t="str">
+      <c r="D50" s="6" t="str">
         <v>c("seas", "ocsb", "hegy", "ch")</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" t="str">
+      <c r="B51" s="6" t="str">
         <v>seasonal.test.args</v>
       </c>
-      <c r="C51" t="str">
+      <c r="C51" s="6" t="str">
         <v>language</v>
       </c>
-      <c r="D51" t="str">
+      <c r="D51" s="6" t="str">
         <v>list()</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" t="str">
+      <c r="B52" s="6" t="str">
         <v>allowdrift</v>
       </c>
-      <c r="C52" t="str">
+      <c r="C52" s="6" t="str">
         <v>logical</v>
       </c>
-      <c r="D52" t="b">
+      <c r="D52" s="6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" t="str">
+      <c r="B53" s="6" t="str">
         <v>allowmean</v>
       </c>
-      <c r="C53" t="str">
+      <c r="C53" s="6" t="str">
         <v>logical</v>
       </c>
-      <c r="D53" t="b">
+      <c r="D53" s="6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" t="str">
+      <c r="B54" s="6" t="str">
         <v>lambda</v>
       </c>
-      <c r="C54" t="str">
+      <c r="C54" s="6" t="str">
         <v>NULL</v>
       </c>
-      <c r="D54" t="str">
+      <c r="D54" s="6" t="str">
         <v>&lt;missing&gt;</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" t="str">
+      <c r="B55" s="6" t="str">
         <v>biasadj</v>
       </c>
-      <c r="C55" t="str">
+      <c r="C55" s="6" t="str">
         <v>logical</v>
       </c>
-      <c r="D55" t="b">
+      <c r="D55" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" t="str">
+      <c r="B56" s="6" t="str">
         <v>parallel</v>
       </c>
-      <c r="C56" t="str">
+      <c r="C56" s="6" t="str">
         <v>logical</v>
       </c>
-      <c r="D56" t="b">
+      <c r="D56" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" t="str">
+      <c r="B57" s="6" t="str">
         <v>num.cores</v>
       </c>
-      <c r="C57" t="str">
+      <c r="C57" s="6" t="str">
         <v>double</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" t="str">
+      <c r="B58" s="6" t="str">
         <v>x</v>
       </c>
-      <c r="C58" t="str">
+      <c r="C58" s="6" t="str">
         <v>symbol</v>
       </c>
-      <c r="D58" t="str">
+      <c r="D58" s="6" t="str">
         <v>y</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" t="str">
+      <c r="B59" s="6" t="str">
         <v>...</v>
       </c>
-      <c r="C59" t="str">
+      <c r="C59" s="6" t="str">
         <v>symbol</v>
       </c>
-      <c r="D59" t="str">
+      <c r="D59" s="6" t="str">
         <v>&lt;missing&gt;</v>
       </c>
     </row>
@@ -6719,68 +7673,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3498149E-DF07-4EDD-8156-0D8C6A2C5033}">
-  <dimension ref="B2:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" t="str" cm="1">
-        <f t="array" ref="F2">_xll.RScript.Evaluate(B2)</f>
-        <v>fit</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" s="13" t="str" cm="1">
-        <f t="array" ref="F4">_xll.RScript.Evaluate(B4)</f>
-        <v xml:space="preserve">Exception: Error in forecast(WWWusage) : 
-  'object' should be 'Arima' or 'estimate' class estimated 
-         from arima() or estimate()
-</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B954B882-F2BE-4B17-93AE-58A0694CD2AA}">
   <dimension ref="B2:R102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="25"/>
       <c r="E2" t="str" cm="1">
         <f t="array" ref="E2:O2">TRANSPOSE(_xll.Model.Results(C9))</f>
         <v>method</v>
@@ -8021,7 +8926,7 @@
   <dimension ref="B2:CF69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8030,10 +8935,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:84" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="25"/>
       <c r="E2" t="str" cm="1">
         <f t="array" ref="E2:O2">TRANSPOSE(_xll.Model.Results(C9))</f>
         <v>method</v>
@@ -9812,7 +10717,7 @@
   <dimension ref="B2:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9821,10 +10726,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="25"/>
       <c r="E2" t="str" cm="1">
         <f t="array" ref="E2:P2">TRANSPOSE(_xll.Model.Results(C9))</f>
         <v>method</v>
@@ -9995,23 +10900,23 @@
       <c r="G15">
         <v>92</v>
       </c>
-      <c r="M15" t="str" cm="1">
+      <c r="M15" s="6" t="str" cm="1">
         <f t="array" ref="M15:R20">_xll.Model.Result(C9,,,TRUE)</f>
         <v>Index</v>
       </c>
-      <c r="N15" t="str">
+      <c r="N15" s="6" t="str">
         <v>Point Forecast</v>
       </c>
-      <c r="O15" t="str">
+      <c r="O15" s="6" t="str">
         <v>Lo 80</v>
       </c>
-      <c r="P15" t="str">
+      <c r="P15" s="6" t="str">
         <v>Hi 80</v>
       </c>
-      <c r="Q15" t="str">
+      <c r="Q15" s="6" t="str">
         <v>Lo 95</v>
       </c>
-      <c r="R15" t="str">
+      <c r="R15" s="6" t="str">
         <v>Hi 95</v>
       </c>
     </row>
@@ -10019,22 +10924,22 @@
       <c r="G16">
         <v>105.7</v>
       </c>
-      <c r="M16" t="str">
+      <c r="M16" s="6" t="str">
         <v>20</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="6">
         <v>225.69366857959511</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="6">
         <v>219.84544644926672</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="6">
         <v>231.54189070992351</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="6">
         <v>216.74958466037893</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="6">
         <v>234.6377524988113</v>
       </c>
     </row>
@@ -10042,22 +10947,22 @@
       <c r="G17">
         <v>122.8</v>
       </c>
-      <c r="M17" t="str">
+      <c r="M17" s="6" t="str">
         <v>21</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="6">
         <v>248.18142342236592</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="6">
         <v>233.72463828435619</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="6">
         <v>262.63820856037569</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="6">
         <v>226.07167851273206</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="6">
         <v>270.29116833199976</v>
       </c>
     </row>
@@ -10065,22 +10970,22 @@
       <c r="G18">
         <v>131.69999999999999</v>
       </c>
-      <c r="M18" t="str">
+      <c r="M18" s="6" t="str">
         <v>22</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="6">
         <v>270.66917826505437</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="6">
         <v>245.50229656376928</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="6">
         <v>295.83605996633946</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="6">
         <v>232.17975414520822</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="6">
         <v>309.15860238490052</v>
       </c>
     </row>
@@ -10088,22 +10993,22 @@
       <c r="G19">
         <v>151.30000000000001</v>
       </c>
-      <c r="M19" t="str">
+      <c r="M19" s="6" t="str">
         <v>23</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="6">
         <v>293.15693310685583</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="6">
         <v>255.52412735202455</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="6">
         <v>330.78973886168711</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="6">
         <v>235.60252335876515</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="6">
         <v>350.71134285494651</v>
       </c>
     </row>
@@ -10111,22 +11016,22 @@
       <c r="G20">
         <v>179.3</v>
       </c>
-      <c r="M20" t="str">
+      <c r="M20" s="6" t="str">
         <v>24</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="6">
         <v>315.64468794849495</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="6">
         <v>264.0067802525511</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="6">
         <v>367.2825956444388</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="6">
         <v>236.67132312876197</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="6">
         <v>394.61805276822793</v>
       </c>
     </row>
@@ -10147,7 +11052,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA88197-BF08-4D10-BCFB-64225CCCCA05}">
   <dimension ref="B2:R102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10155,10 +11062,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="25"/>
       <c r="E2" t="str" cm="1">
         <f t="array" ref="E2:N2">TRANSPOSE(_xll.Model.Results(C9))</f>
         <v>model</v>
@@ -11027,39 +11934,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0CE19D-675F-4993-83DB-CED3FAA74B62}">
   <dimension ref="B3:Q55"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="17" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="25"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -11074,7 +11981,7 @@
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="4" t="str" cm="1">
         <f t="array" ref="C6">_xll.RScript.CreateDataFrame("gala",tGalapagosData[],tGalapagosData[#Headers])</f>
@@ -11086,12 +11993,15 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="K6" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
@@ -11101,26 +12011,26 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="J7" s="16"/>
-      <c r="K7" s="20" t="str" cm="1">
+      <c r="K7" s="32" t="str" cm="1">
         <f t="array" ref="K7:Q8">_xll.Model.Accuracy(C8)</f>
         <v>Index</v>
       </c>
-      <c r="L7" s="21" t="str">
+      <c r="L7" s="33" t="str">
         <v>ME</v>
       </c>
-      <c r="M7" s="21" t="str">
+      <c r="M7" s="33" t="str">
         <v>RMSE</v>
       </c>
-      <c r="N7" s="21" t="str">
+      <c r="N7" s="33" t="str">
         <v>MAE</v>
       </c>
-      <c r="O7" s="21" t="str">
+      <c r="O7" s="33" t="str">
         <v>MPE</v>
       </c>
-      <c r="P7" s="21" t="str">
+      <c r="P7" s="33" t="str">
         <v>MAPE</v>
       </c>
-      <c r="Q7" s="21" t="str">
+      <c r="Q7" s="33" t="str">
         <v>MASE</v>
       </c>
     </row>
@@ -11138,25 +12048,25 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="16" t="str">
+      <c r="K8" s="34" t="str">
         <v>Training set</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="35">
         <v>-2.3728125945569426E-16</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="35">
         <v>54.534506468374872</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="35">
         <v>40.47955300968804</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="35">
         <v>-75.33900029820343</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="35">
         <v>251.9938767537096</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="35">
         <v>0.49449734925101435</v>
       </c>
     </row>
@@ -11170,7 +12080,7 @@
       <c r="J9" s="16"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="8"/>
@@ -11178,23 +12088,23 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="K10" s="10" t="str" cm="1">
+      <c r="K10" s="7" t="str" cm="1">
         <f t="array" ref="K10:P16">_xll.RScript.Evaluate("anova("&amp;C8&amp;")")</f>
         <v>Index</v>
       </c>
-      <c r="L10" s="10" t="str">
+      <c r="L10" s="7" t="str">
         <v>Df</v>
       </c>
-      <c r="M10" s="10" t="str">
+      <c r="M10" s="7" t="str">
         <v>Sum Sq</v>
       </c>
-      <c r="N10" s="10" t="str">
+      <c r="N10" s="7" t="str">
         <v>Mean Sq</v>
       </c>
-      <c r="O10" s="10" t="str">
+      <c r="O10" s="7" t="str">
         <v>F value</v>
       </c>
-      <c r="P10" s="10" t="str">
+      <c r="P10" s="7" t="str">
         <v>Pr(&gt;F)</v>
       </c>
     </row>
@@ -11208,22 +12118,22 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="K11" s="22" t="str">
+      <c r="K11" s="30" t="str">
         <v>Area</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="31">
         <v>1</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="31">
         <v>145465.08832562366</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="31">
         <v>145465.08832562366</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="31">
         <v>39.129652192045477</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="31">
         <v>1.8246037566969249E-6</v>
       </c>
     </row>
@@ -11236,22 +12146,22 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="K12" s="22" t="str">
+      <c r="K12" s="30" t="str">
         <v>Elevation</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="31">
         <v>1</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="31">
         <v>65666.629692837261</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="31">
         <v>65666.629692837261</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="31">
         <v>17.664117281204366</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="31">
         <v>3.1520105175534223E-4</v>
       </c>
     </row>
@@ -11264,22 +12174,22 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="K13" s="22" t="str">
+      <c r="K13" s="30" t="str">
         <v>Nearest</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="31">
         <v>1</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="31">
         <v>29.309994088102041</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="31">
         <v>29.309994088102041</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="31">
         <v>7.8842964151716495E-3</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="31">
         <v>0.92998278059540307</v>
       </c>
     </row>
@@ -11293,22 +12203,22 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="17"/>
-      <c r="K14" s="22" t="str">
+      <c r="K14" s="30" t="str">
         <v>Scruz</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="31">
         <v>1</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="31">
         <v>14278.485641368316</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="31">
         <v>14278.485641368316</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="31">
         <v>3.8408678220108738</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="31">
         <v>6.1729080849071229E-2</v>
       </c>
     </row>
@@ -11321,22 +12231,22 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="K15" s="22" t="str">
+      <c r="K15" s="30" t="str">
         <v>Adjacent</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="31">
         <v>1</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="31">
         <v>66421.481140272663</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="31">
         <v>66421.481140272663</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="31">
         <v>17.867169951331583</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="31">
         <v>2.9650744889825993E-4</v>
       </c>
     </row>
@@ -11349,22 +12259,22 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="K16" s="22" t="str">
+      <c r="K16" s="30" t="str">
         <v>Residuals</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="31">
         <v>24</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="31">
         <v>89220.371872476637</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="31">
         <v>3717.5154946865264</v>
       </c>
-      <c r="O16" s="8" t="str">
+      <c r="O16" s="31" t="str">
         <v/>
       </c>
-      <c r="P16" s="8" t="str">
+      <c r="P16" s="31" t="str">
         <v/>
       </c>
     </row>
@@ -11416,24 +12326,25 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="K20" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="L20" s="18"/>
+      <c r="K20" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" s="37"/>
+      <c r="M20" s="14"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <v>terms</v>
       </c>
       <c r="H21" s="8"/>
-      <c r="K21" t="str" cm="1">
+      <c r="K21" s="14" t="str" cm="1">
         <f t="array" ref="K21:M34">_xll.RScript.Params("lm", TRUE, TRUE)</f>
         <v>formula</v>
       </c>
-      <c r="L21" s="18" t="str">
+      <c r="L21" s="30" t="str">
         <v>symbol</v>
       </c>
-      <c r="M21" t="str">
+      <c r="M21" s="14" t="str">
         <v>&lt;missing&gt;</v>
       </c>
     </row>
@@ -11442,25 +12353,25 @@
         <v>model</v>
       </c>
       <c r="H22" s="8"/>
-      <c r="K22" t="str">
+      <c r="K22" s="14" t="str">
         <v>data</v>
       </c>
-      <c r="L22" t="str">
+      <c r="L22" s="14" t="str">
         <v>symbol</v>
       </c>
-      <c r="M22" t="str">
+      <c r="M22" s="14" t="str">
         <v>&lt;missing&gt;</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="H23" s="8"/>
-      <c r="K23" t="str">
+      <c r="K23" s="14" t="str">
         <v>subset</v>
       </c>
-      <c r="L23" t="str">
+      <c r="L23" s="14" t="str">
         <v>symbol</v>
       </c>
-      <c r="M23" t="str">
+      <c r="M23" s="14" t="str">
         <v>&lt;missing&gt;</v>
       </c>
     </row>
@@ -11470,13 +12381,13 @@
         <v>summary</v>
       </c>
       <c r="H24" s="8"/>
-      <c r="K24" t="str">
+      <c r="K24" s="14" t="str">
         <v>weights</v>
       </c>
-      <c r="L24" t="str">
+      <c r="L24" s="14" t="str">
         <v>symbol</v>
       </c>
-      <c r="M24" t="str">
+      <c r="M24" s="14" t="str">
         <v>&lt;missing&gt;</v>
       </c>
     </row>
@@ -11490,13 +12401,13 @@
         <v xml:space="preserve">lm(formula = Species ~ Area + Elevation + Nearest + Scruz + Adjacent, </v>
       </c>
       <c r="H25" s="8"/>
-      <c r="K25" t="str">
+      <c r="K25" s="14" t="str">
         <v>na.action</v>
       </c>
-      <c r="L25" t="str">
+      <c r="L25" s="14" t="str">
         <v>symbol</v>
       </c>
-      <c r="M25" t="str">
+      <c r="M25" s="14" t="str">
         <v>&lt;missing&gt;</v>
       </c>
     </row>
@@ -11509,13 +12420,13 @@
         <v>Species ~ Area + Elevation + Nearest + Scruz + Adjacent</v>
       </c>
       <c r="H26" s="8"/>
-      <c r="K26" t="str">
+      <c r="K26" s="14" t="str">
         <v>method</v>
       </c>
-      <c r="L26" t="str">
+      <c r="L26" s="14" t="str">
         <v>character</v>
       </c>
-      <c r="M26" t="str">
+      <c r="M26" s="14" t="str">
         <v>qr</v>
       </c>
     </row>
@@ -11524,13 +12435,13 @@
         <v>residuals</v>
       </c>
       <c r="H27" s="8"/>
-      <c r="K27" t="str">
+      <c r="K27" s="14" t="str">
         <v>model</v>
       </c>
-      <c r="L27" t="str">
+      <c r="L27" s="14" t="str">
         <v>logical</v>
       </c>
-      <c r="M27" t="b">
+      <c r="M27" s="14" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11539,13 +12450,13 @@
         <v>coefficients</v>
       </c>
       <c r="H28" s="8"/>
-      <c r="K28" t="str">
+      <c r="K28" s="14" t="str">
         <v>x</v>
       </c>
-      <c r="L28" t="str">
+      <c r="L28" s="14" t="str">
         <v>logical</v>
       </c>
-      <c r="M28" t="b">
+      <c r="M28" s="14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11554,13 +12465,13 @@
         <v>aliased</v>
       </c>
       <c r="H29" s="8"/>
-      <c r="K29" t="str">
+      <c r="K29" s="14" t="str">
         <v>y</v>
       </c>
-      <c r="L29" t="str">
+      <c r="L29" s="14" t="str">
         <v>logical</v>
       </c>
-      <c r="M29" t="b">
+      <c r="M29" s="14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11573,13 +12484,13 @@
         <v>60.971431791344102</v>
       </c>
       <c r="H30" s="8"/>
-      <c r="K30" t="str">
+      <c r="K30" s="14" t="str">
         <v>qr</v>
       </c>
-      <c r="L30" t="str">
+      <c r="L30" s="14" t="str">
         <v>logical</v>
       </c>
-      <c r="M30" t="b">
+      <c r="M30" s="14" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11598,13 +12509,13 @@
         <v>6</v>
       </c>
       <c r="H31" s="8"/>
-      <c r="K31" t="str">
+      <c r="K31" s="14" t="str">
         <v>singular.ok</v>
       </c>
-      <c r="L31" t="str">
+      <c r="L31" s="14" t="str">
         <v>logical</v>
       </c>
-      <c r="M31" t="b">
+      <c r="M31" s="14" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11617,13 +12528,13 @@
         <v>0.76587579536388606</v>
       </c>
       <c r="H32" s="8"/>
-      <c r="K32" t="str">
+      <c r="K32" s="14" t="str">
         <v>contrasts</v>
       </c>
-      <c r="L32" t="str">
+      <c r="L32" s="14" t="str">
         <v>NULL</v>
       </c>
-      <c r="M32" t="str">
+      <c r="M32" s="14" t="str">
         <v>&lt;missing&gt;</v>
       </c>
     </row>
@@ -11636,13 +12547,13 @@
         <v>0.71709991939802897</v>
       </c>
       <c r="H33" s="8"/>
-      <c r="K33" t="str">
+      <c r="K33" s="14" t="str">
         <v>offset</v>
       </c>
-      <c r="L33" t="str">
+      <c r="L33" s="14" t="str">
         <v>symbol</v>
       </c>
-      <c r="M33" t="str">
+      <c r="M33" s="14" t="str">
         <v>&lt;missing&gt;</v>
       </c>
     </row>
@@ -11661,13 +12572,13 @@
         <v>24</v>
       </c>
       <c r="H34" s="8"/>
-      <c r="K34" t="str">
+      <c r="K34" s="14" t="str">
         <v>...</v>
       </c>
-      <c r="L34" t="str">
+      <c r="L34" s="14" t="str">
         <v>symbol</v>
       </c>
-      <c r="M34" t="str">
+      <c r="M34" s="14" t="str">
         <v>&lt;missing&gt;</v>
       </c>
     </row>
@@ -11677,46 +12588,59 @@
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+      <c r="B38" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C38" t="str" cm="1">
+      <c r="C38" s="6" t="str" cm="1">
         <f t="array" ref="C38">_xll.Model.Result($C$8,B20)</f>
         <v xml:space="preserve">lm(formula = Species ~ Area + Elevation + Nearest + Scruz + Adjacent, </v>
       </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>157</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" s="6" t="s">
         <v>156</v>
       </c>
+      <c r="C40" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
       <c r="K40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C41" t="str" cm="1">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6" t="str" cm="1">
         <f t="array" ref="C41:I43">TRANSPOSE(_xll.RScript.Evaluate(C40))</f>
         <v>Index</v>
       </c>
-      <c r="D41" t="str">
+      <c r="D41" s="6" t="str">
         <v>1</v>
       </c>
-      <c r="E41" t="str">
+      <c r="E41" s="6" t="str">
         <v>2</v>
       </c>
-      <c r="F41" t="str">
+      <c r="F41" s="6" t="str">
         <v>3</v>
       </c>
-      <c r="G41" t="str">
+      <c r="G41" s="6" t="str">
         <v>4</v>
       </c>
-      <c r="H41" t="str">
+      <c r="H41" s="6" t="str">
         <v>5</v>
       </c>
-      <c r="I41" t="str">
+      <c r="I41" s="6" t="str">
         <v>6</v>
       </c>
       <c r="K41" t="str" cm="1">
@@ -11725,25 +12649,26 @@
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C42" t="str">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6" t="str">
         <v>Var1</v>
       </c>
-      <c r="D42" t="str">
+      <c r="D42" s="6" t="str">
         <v>Min.</v>
       </c>
-      <c r="E42" t="str">
+      <c r="E42" s="6" t="str">
         <v>1st Qu.</v>
       </c>
-      <c r="F42" t="str">
+      <c r="F42" s="6" t="str">
         <v>Median</v>
       </c>
-      <c r="G42" t="str">
+      <c r="G42" s="6" t="str">
         <v>Mean</v>
       </c>
-      <c r="H42" t="str">
+      <c r="H42" s="6" t="str">
         <v>3rd Qu.</v>
       </c>
-      <c r="I42" t="str">
+      <c r="I42" s="6" t="str">
         <v>Max.</v>
       </c>
       <c r="K42" t="str" cm="1">
@@ -11767,25 +12692,26 @@
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C43" t="str">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6" t="str">
         <v>Freq</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="23">
         <v>-111.71094905064064</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="23">
         <v>-34.902043560992595</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="23">
         <v>-7.8645084828279774</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="23">
         <v>-2.6648243796797053E-16</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="23">
         <v>33.466533399757409</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I43" s="23">
         <v>182.56060337392722</v>
       </c>
       <c r="K43" cm="1">
@@ -11814,77 +12740,80 @@
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>158</v>
-      </c>
-      <c r="C45" t="str" cm="1">
+      <c r="B45" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="6" t="str" cm="1">
         <f t="array" ref="C45:G51">_xll.Model.Result($B$24,B28, , TRUE)</f>
         <v>Index</v>
       </c>
-      <c r="D45" t="str">
+      <c r="D45" s="6" t="str">
         <v>Estimate</v>
       </c>
-      <c r="E45" t="str">
+      <c r="E45" s="6" t="str">
         <v>Std. Error</v>
       </c>
-      <c r="F45" t="str">
+      <c r="F45" s="6" t="str">
         <v>t value</v>
       </c>
-      <c r="G45" t="str">
+      <c r="G45" s="6" t="str">
         <v>Pr(&gt;|t|)</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C46" t="str">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6" t="str">
         <v>(Intercept)</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="24">
         <v>7.0637987276726024</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="24">
         <v>19.151718218698395</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="24">
         <v>0.36883368097886926</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="24">
         <v>0.71548552319534875</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C47" t="str">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6" t="str">
         <v>Area</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="24">
         <v>-2.3973822786884355E-2</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="24">
         <v>2.2425133221648137E-2</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="24">
         <v>-1.0690604399059349</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="24">
         <v>0.29567746043933185</v>
       </c>
       <c r="K47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C48" t="str">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6" t="str">
         <v>Elevation</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="24">
         <v>0.31953389710516372</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="24">
         <v>5.3666706073942548E-2</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="24">
         <v>5.9540434001093079</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="24">
         <v>3.8153600356177622E-6</v>
       </c>
       <c r="K48" t="str" cm="1">
@@ -11893,19 +12822,20 @@
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C49" t="str">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6" t="str">
         <v>Nearest</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="24">
         <v>8.7281225883695229E-3</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="24">
         <v>1.0540936448163494</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="24">
         <v>8.2802155494355427E-3</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="24">
         <v>0.99346186415354265</v>
       </c>
       <c r="K49" t="str" cm="1">
@@ -11918,19 +12848,20 @@
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C50" t="str">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6" t="str">
         <v>Scruz</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="24">
         <v>-0.24053981518087014</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="24">
         <v>0.2153880290222972</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="24">
         <v>-1.1167742992623291</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="24">
         <v>0.27514698561900564</v>
       </c>
       <c r="K50" t="str">
@@ -11942,19 +12873,20 @@
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C51" t="str">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6" t="str">
         <v>Adjacent</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="24">
         <v>-7.4818389947075972E-2</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="24">
         <v>1.7700293753865205E-2</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="24">
         <v>-4.2269575289245083</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="24">
         <v>2.9650744889825993E-4</v>
       </c>
       <c r="K51" t="str">
@@ -11975,13 +12907,17 @@
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>159</v>
-      </c>
-      <c r="C53" t="str">
+      <c r="B53" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="6" t="str">
         <f>"Residual standard error: "&amp;ROUND(C30, 3)&amp;" on "&amp;C18&amp;" degrees of freedom"</f>
         <v>Residual standard error: 60.971 on 24 degrees of freedom</v>
       </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
       <c r="K53" t="str">
         <v>Scruz</v>
       </c>
@@ -11991,14 +12927,18 @@
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C54" t="str">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6" t="str">
         <f>"Multiple R-squared: "&amp;ROUND(C32, 4)</f>
         <v>Multiple R-squared: 0.7659</v>
       </c>
-      <c r="F54" t="str">
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6" t="str">
         <f>"Adjusted R-squared: "&amp;ROUND(C33,4)</f>
         <v>Adjusted R-squared: 0.7171</v>
       </c>
+      <c r="G54" s="6"/>
       <c r="K54" t="str">
         <v>Adjacent</v>
       </c>
@@ -12008,15 +12948,18 @@
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C55" t="str">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6" t="str">
         <f>"F-statistic: "&amp;ROUND(C34, 2)&amp;" on "&amp;D34&amp;" and "&amp;E34&amp;" DF"</f>
         <v>F-statistic: 15.7 on 5 and 24 DF</v>
       </c>
-      <c r="F55" t="str">
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6" t="str">
         <f>"p-value: "</f>
         <v xml:space="preserve">p-value: </v>
       </c>
-      <c r="G55">
+      <c r="G55" s="6">
         <f>_xlfn.F.DIST.RT(C34,D34,E34)</f>
         <v>6.8281372424990243E-7</v>
       </c>
@@ -12033,25 +12976,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F812DA7-7958-4E93-99D4-1625C4C8E1B7}">
   <dimension ref="B3:AP64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="27.44140625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
     <col min="9" max="9" width="12.21875" customWidth="1"/>
     <col min="10" max="10" width="13.5546875" customWidth="1"/>
     <col min="12" max="12" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="25"/>
       <c r="F3" s="10" t="s">
         <v>28</v>
       </c>
@@ -12061,7 +13003,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F4" t="str" cm="1">
         <f t="array" ref="F4:F33">_xll.Model.Results(C9)</f>
@@ -12084,10 +13026,10 @@
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F5" t="str">
         <v>residuals</v>
@@ -12204,7 +13146,7 @@
     </row>
     <row r="6" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="4" t="str" cm="1">
         <f t="array" ref="C6">_xll.RScript.CreateDataFrame("purchase",tPurchaseData[],tPurchaseData[#Headers])</f>
@@ -12325,10 +13267,10 @@
     </row>
     <row r="7" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="F7" t="str">
         <v>effects</v>
@@ -13060,10 +14002,10 @@
     </row>
     <row r="23" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F23" t="str">
         <v>boundary</v>
@@ -13501,10 +14443,10 @@
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R44" t="str">
         <v xml:space="preserve">    if (!is.null(m &lt;- object$model)) {</v>
@@ -13516,10 +14458,10 @@
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="26"/>
+      <c r="C46" s="25"/>
       <c r="R46" t="str">
         <v xml:space="preserve">        if (is.factor(y)) {</v>
       </c>
@@ -13529,7 +14471,7 @@
         <v>11</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R47" t="str">
         <v xml:space="preserve">            yy &lt;- factor(1 + rbinom(ntot, size = 1, prob = ftd), </v>
@@ -13537,39 +14479,104 @@
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>180</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="F48" s="10" t="str" cm="1">
+        <f t="array" ref="F48:J52">_xll.RScript.Evaluate("anova("&amp;C9&amp;")")</f>
+        <v>Index</v>
+      </c>
+      <c r="G48" s="10" t="str">
+        <v>Df</v>
+      </c>
+      <c r="H48" s="10" t="str">
+        <v>Deviance</v>
+      </c>
+      <c r="I48" s="10" t="str">
+        <v>Resid. Df</v>
+      </c>
+      <c r="J48" s="10" t="str">
+        <v>Resid. Dev</v>
+      </c>
+      <c r="K48" s="10"/>
       <c r="R48" t="str">
         <v xml:space="preserve">                labels = levels(y))</v>
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>182</v>
-      </c>
+      <c r="F49" s="19" t="str">
+        <v>NULL</v>
+      </c>
+      <c r="G49" s="8">
+        <v>-2147483648</v>
+      </c>
+      <c r="H49" s="8" t="str">
+        <v/>
+      </c>
+      <c r="I49" s="8">
+        <v>35</v>
+      </c>
+      <c r="J49" s="8">
+        <v>48.113890391846773</v>
+      </c>
+      <c r="K49" s="8"/>
       <c r="R49" t="str">
         <v xml:space="preserve">            split(yy, rep(seq_len(nsim), each = n))</v>
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C50" s="4" t="str">
         <f>"^"&amp;C6</f>
         <v>^purchase</v>
       </c>
+      <c r="F50" s="19" t="str">
+        <v>Income</v>
+      </c>
+      <c r="G50" s="8">
+        <v>1</v>
+      </c>
+      <c r="H50" s="8">
+        <v>10.90992825008535</v>
+      </c>
+      <c r="I50" s="8">
+        <v>34</v>
+      </c>
+      <c r="J50" s="8">
+        <v>37.203962141761423</v>
+      </c>
+      <c r="K50" s="8"/>
       <c r="R50" t="str">
         <v xml:space="preserve">        }</v>
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F51" s="19" t="str">
+        <v>Age</v>
+      </c>
+      <c r="G51" s="8">
+        <v>1</v>
+      </c>
+      <c r="H51" s="8">
+        <v>1.0299937438739661</v>
+      </c>
+      <c r="I51" s="8">
+        <v>33</v>
+      </c>
+      <c r="J51" s="8">
+        <v>36.173968397887457</v>
+      </c>
+      <c r="K51" s="8"/>
       <c r="R51" t="str">
         <v xml:space="preserve">        else if (is.matrix(y) &amp;&amp; ncol(y) == 2) {</v>
       </c>
@@ -13578,27 +14585,55 @@
       <c r="B52" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="25" t="str" cm="1">
+      <c r="C52" s="22" t="str" cm="1">
         <f t="array" ref="C52">_xll.RScript.Function(C47,C44,B48:C50)</f>
         <v>logModel2</v>
       </c>
+      <c r="F52" s="19" t="str">
+        <v>ZipCode</v>
+      </c>
+      <c r="G52" s="8">
+        <v>1</v>
+      </c>
+      <c r="H52" s="8">
+        <v>7.8536700402585495</v>
+      </c>
+      <c r="I52" s="8">
+        <v>32</v>
+      </c>
+      <c r="J52" s="8">
+        <v>28.320298357628907</v>
+      </c>
+      <c r="K52" s="8"/>
       <c r="R52" t="str">
         <v xml:space="preserve">            yy &lt;- vector("list", nsim)</v>
       </c>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F53" s="19"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
       <c r="R53" t="str">
         <v xml:space="preserve">            for (i in seq_len(nsim)) {</v>
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F54" s="19"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
       <c r="R54" t="str">
         <v xml:space="preserve">                Y &lt;- rbinom(n, size = wts, prob = ftd)</v>
       </c>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D55" t="str" cm="1">
         <f t="array" ref="D55">_xll.RScript.Evaluate(B55)</f>
@@ -13666,7 +14701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9135BF-2115-4D96-AD2D-B561EFF71C80}">
   <dimension ref="B2:H122"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13680,7 +14715,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" t="str" cm="1">
         <f t="array" ref="C2">_xll.RScript.Evaluate(B2)</f>
@@ -13924,7 +14959,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" t="str" cm="1">
         <f t="array" ref="C16">_xll.RScript.Evaluate(B16)</f>
@@ -14340,7 +15375,7 @@
         <v>formula</v>
       </c>
       <c r="C68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G68" t="str" cm="1">
         <f t="array" ref="G68">_xll.RScript.Function("lm_mod", "lm", B68:C69)</f>
@@ -14573,7 +15608,7 @@
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C108" t="str" cm="1">
         <f t="array" ref="C108">_xll.RScript.Evaluate(B108)</f>
@@ -14849,10 +15884,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA1CB6E-EEA6-410B-8C3F-D152623D3978}">
-  <dimension ref="C2:E3"/>
+  <dimension ref="C2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14860,21 +15895,29 @@
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C2" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>2</v>
-      </c>
-      <c r="E2" t="str" cm="1">
-        <f t="array" ref="E2">_xll.RScript.Evaluate(C2, TRUE)</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>3</v>
       </c>
       <c r="E3" t="str" cm="1">
         <f t="array" ref="E3">_xll.RScript.Evaluate(C3, TRUE)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="str" cm="1">
+        <f t="array" ref="E4">_xll.RScript.Evaluate(C4, TRUE)</f>
         <v>OK</v>
       </c>
     </row>
@@ -14887,7 +15930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16A5A11-FD74-4F49-8237-7EB8CA3CF65D}">
   <dimension ref="B2:AJ1110"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14936,43 +15979,43 @@
         <v>76</v>
       </c>
       <c r="V2" t="s">
+        <v>112</v>
+      </c>
+      <c r="W2" t="s">
         <v>113</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>114</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>115</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>116</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>117</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>118</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>119</v>
       </c>
-      <c r="AC2" t="s">
-        <v>120</v>
-      </c>
       <c r="AE2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH2" t="s">
         <v>175</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>176</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>177</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.3">
@@ -15013,7 +16056,7 @@
         <v>112</v>
       </c>
       <c r="V3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W3">
         <v>58</v>
@@ -15036,7 +16079,7 @@
       <c r="AC3">
         <v>1.84</v>
       </c>
-      <c r="AE3" s="24">
+      <c r="AE3" s="21">
         <v>105.33376112622406</v>
       </c>
       <c r="AG3">
@@ -15090,7 +16133,7 @@
         <v>118</v>
       </c>
       <c r="V4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W4">
         <v>31</v>
@@ -15113,7 +16156,7 @@
       <c r="AC4">
         <v>572.33000000000004</v>
       </c>
-      <c r="AE4" s="24">
+      <c r="AE4" s="21">
         <v>111.79410633687822</v>
       </c>
       <c r="AG4">
@@ -15167,7 +16210,7 @@
         <v>132</v>
       </c>
       <c r="V5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W5">
         <v>3</v>
@@ -15190,7 +16233,7 @@
       <c r="AC5">
         <v>0.78</v>
       </c>
-      <c r="AE5" s="24">
+      <c r="AE5" s="21">
         <v>95.197645971547047</v>
       </c>
       <c r="AG5">
@@ -15244,7 +16287,7 @@
         <v>129</v>
       </c>
       <c r="V6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W6">
         <v>25</v>
@@ -15267,7 +16310,7 @@
       <c r="AC6">
         <v>0.18</v>
       </c>
-      <c r="AE6" s="24">
+      <c r="AE6" s="21">
         <v>89.47529059071762</v>
       </c>
       <c r="AG6">
@@ -15321,7 +16364,7 @@
         <v>121</v>
       </c>
       <c r="V7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W7">
         <v>2</v>
@@ -15344,7 +16387,7 @@
       <c r="AC7">
         <v>903.82</v>
       </c>
-      <c r="AE7" s="24">
+      <c r="AE7" s="21">
         <v>85.572647131307875</v>
       </c>
       <c r="AG7">
@@ -15398,7 +16441,7 @@
         <v>135</v>
       </c>
       <c r="V8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W8">
         <v>18</v>
@@ -15421,7 +16464,7 @@
       <c r="AC8">
         <v>1.84</v>
       </c>
-      <c r="AE8" s="24">
+      <c r="AE8" s="21">
         <v>102.83015305596356</v>
       </c>
       <c r="AG8">
@@ -15475,7 +16518,7 @@
         <v>148</v>
       </c>
       <c r="V9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W9">
         <v>24</v>
@@ -15498,7 +16541,7 @@
       <c r="AC9">
         <v>0.34</v>
       </c>
-      <c r="AE9" s="24">
+      <c r="AE9" s="21">
         <v>106.80684414070258</v>
       </c>
       <c r="AG9">
@@ -15552,7 +16595,7 @@
         <v>148</v>
       </c>
       <c r="V10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W10">
         <v>10</v>
@@ -15575,7 +16618,7 @@
       <c r="AC10">
         <v>2.85</v>
       </c>
-      <c r="AE10" s="24">
+      <c r="AE10" s="21">
         <v>113.72246749485991</v>
       </c>
       <c r="AG10">
@@ -15629,7 +16672,7 @@
         <v>136</v>
       </c>
       <c r="V11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W11">
         <v>8</v>
@@ -15652,7 +16695,7 @@
       <c r="AC11">
         <v>17.95</v>
       </c>
-      <c r="AE11" s="24">
+      <c r="AE11" s="21">
         <v>119.60061562918311</v>
       </c>
       <c r="AG11">
@@ -15706,7 +16749,7 @@
         <v>119</v>
       </c>
       <c r="V12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W12">
         <v>2</v>
@@ -15729,7 +16772,7 @@
       <c r="AC12">
         <v>0.1</v>
       </c>
-      <c r="AE12" s="24">
+      <c r="AE12" s="21">
         <v>115.75388729149387</v>
       </c>
       <c r="AG12">
@@ -15783,7 +16826,7 @@
         <v>104</v>
       </c>
       <c r="V13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W13">
         <v>97</v>
@@ -15806,7 +16849,7 @@
       <c r="AC13">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AE13" s="24">
+      <c r="AE13" s="21">
         <v>108.1459323527514</v>
       </c>
       <c r="AG13">
@@ -15860,7 +16903,7 @@
         <v>118</v>
       </c>
       <c r="V14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W14">
         <v>93</v>
@@ -15883,7 +16926,7 @@
       <c r="AC14">
         <v>4669.32</v>
       </c>
-      <c r="AE14" s="24">
+      <c r="AE14" s="21">
         <v>110.96292941434531</v>
       </c>
       <c r="AG14">
@@ -15937,7 +16980,7 @@
         <v>115</v>
       </c>
       <c r="V15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W15">
         <v>58</v>
@@ -15960,7 +17003,7 @@
       <c r="AC15">
         <v>58.27</v>
       </c>
-      <c r="AE15" s="24">
+      <c r="AE15" s="21">
         <v>113.24495065834257</v>
       </c>
       <c r="AG15">
@@ -16014,7 +17057,7 @@
         <v>126</v>
       </c>
       <c r="V16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W16">
         <v>5</v>
@@ -16037,7 +17080,7 @@
       <c r="AC16">
         <v>0.21</v>
       </c>
-      <c r="AE16" s="24">
+      <c r="AE16" s="21">
         <v>102.10173545572339</v>
       </c>
       <c r="AG16">
@@ -16091,7 +17134,7 @@
         <v>141</v>
       </c>
       <c r="V17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W17">
         <v>40</v>
@@ -16114,7 +17157,7 @@
       <c r="AC17">
         <v>129.49</v>
       </c>
-      <c r="AE17" s="24">
+      <c r="AE17" s="21">
         <v>113.51276258544792</v>
       </c>
       <c r="AG17">
@@ -16168,7 +17211,7 @@
         <v>135</v>
       </c>
       <c r="V18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W18">
         <v>347</v>
@@ -16191,7 +17234,7 @@
       <c r="AC18">
         <v>634.49</v>
       </c>
-      <c r="AE18" s="24">
+      <c r="AE18" s="21">
         <v>117.59963548035714</v>
       </c>
       <c r="AG18">
@@ -16245,7 +17288,7 @@
         <v>125</v>
       </c>
       <c r="V19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W19">
         <v>51</v>
@@ -16268,7 +17311,7 @@
       <c r="AC19">
         <v>59.56</v>
       </c>
-      <c r="AE19" s="24">
+      <c r="AE19" s="21">
         <v>101.34340836746375</v>
       </c>
       <c r="AG19">
@@ -16322,7 +17365,7 @@
         <v>149</v>
       </c>
       <c r="V20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W20">
         <v>2</v>
@@ -16345,7 +17388,7 @@
       <c r="AC20">
         <v>0.1</v>
       </c>
-      <c r="AE20" s="24">
+      <c r="AE20" s="21">
         <v>94.418734018227198</v>
       </c>
       <c r="AG20">
@@ -16399,7 +17442,7 @@
         <v>170</v>
       </c>
       <c r="V21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W21">
         <v>104</v>
@@ -16422,7 +17465,7 @@
       <c r="AC21">
         <v>129.49</v>
       </c>
-      <c r="AE21" s="24">
+      <c r="AE21" s="21">
         <v>112.22617802852734</v>
       </c>
       <c r="AG21">
@@ -16473,7 +17516,7 @@
         <v>170</v>
       </c>
       <c r="V22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="W22">
         <v>108</v>
@@ -16496,7 +17539,7 @@
       <c r="AC22">
         <v>0.03</v>
       </c>
-      <c r="AE22" s="24">
+      <c r="AE22" s="21">
         <v>113.36319780653764</v>
       </c>
       <c r="AG22">
@@ -16547,7 +17590,7 @@
         <v>158</v>
       </c>
       <c r="V23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W23">
         <v>12</v>
@@ -16570,7 +17613,7 @@
       <c r="AC23">
         <v>25.09</v>
       </c>
-      <c r="AE23" s="24">
+      <c r="AE23" s="21">
         <v>122.54535551176068</v>
       </c>
       <c r="AG23">
@@ -16615,7 +17658,7 @@
         <v>133</v>
       </c>
       <c r="V24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W24">
         <v>70</v>
@@ -16638,7 +17681,7 @@
       <c r="AC24">
         <v>572.33000000000004</v>
       </c>
-      <c r="AE24" s="24">
+      <c r="AE24" s="21">
         <v>117.66423795893876</v>
       </c>
       <c r="AG24">
@@ -16683,7 +17726,7 @@
         <v>114</v>
       </c>
       <c r="V25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="W25">
         <v>280</v>
@@ -16706,7 +17749,7 @@
       <c r="AC25">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AE25" s="24">
+      <c r="AE25" s="21">
         <v>108.23991357952055</v>
       </c>
       <c r="AG25">
@@ -16751,7 +17794,7 @@
         <v>140</v>
       </c>
       <c r="V26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W26">
         <v>237</v>
@@ -16774,7 +17817,7 @@
       <c r="AC26">
         <v>4.8899999999999997</v>
       </c>
-      <c r="AE26" s="24">
+      <c r="AE26" s="21">
         <v>108.22563216606954</v>
       </c>
       <c r="AG26">
@@ -16819,7 +17862,7 @@
         <v>145</v>
       </c>
       <c r="V27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="W27">
         <v>444</v>
@@ -16842,7 +17885,7 @@
       <c r="AC27">
         <v>0.52</v>
       </c>
-      <c r="AE27" s="24">
+      <c r="AE27" s="21">
         <v>113.16547821687877</v>
       </c>
       <c r="AG27">
@@ -16887,7 +17930,7 @@
         <v>150</v>
       </c>
       <c r="V28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W28">
         <v>62</v>
@@ -16910,7 +17953,7 @@
       <c r="AC28">
         <v>0.52</v>
       </c>
-      <c r="AE28" s="24">
+      <c r="AE28" s="21">
         <v>117.44826364930336</v>
       </c>
       <c r="AG28">
@@ -16955,7 +17998,7 @@
         <v>178</v>
       </c>
       <c r="V29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W29">
         <v>285</v>
@@ -16978,7 +18021,7 @@
       <c r="AC29">
         <v>0.1</v>
       </c>
-      <c r="AE29" s="24">
+      <c r="AE29" s="21">
         <v>114.35107161038742</v>
       </c>
       <c r="AG29">
@@ -17023,7 +18066,7 @@
         <v>163</v>
       </c>
       <c r="V30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W30">
         <v>44</v>
@@ -17046,7 +18089,7 @@
       <c r="AC30">
         <v>25.09</v>
       </c>
-      <c r="AE30" s="24">
+      <c r="AE30" s="21">
         <v>107.83465340957744</v>
       </c>
       <c r="AG30">
@@ -17091,7 +18134,7 @@
         <v>172</v>
       </c>
       <c r="V31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W31">
         <v>16</v>
@@ -17114,7 +18157,7 @@
       <c r="AC31">
         <v>17.95</v>
       </c>
-      <c r="AE31" s="24">
+      <c r="AE31" s="21">
         <v>126.63979793933468</v>
       </c>
       <c r="AG31">
@@ -17159,7 +18202,7 @@
         <v>178</v>
       </c>
       <c r="V32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W32">
         <v>21</v>
@@ -17182,7 +18225,7 @@
       <c r="AC32">
         <v>2.33</v>
       </c>
-      <c r="AE32" s="24">
+      <c r="AE32" s="21">
         <v>121.91707488895689</v>
       </c>
       <c r="AG32">
@@ -17226,7 +18269,7 @@
       <c r="T33">
         <v>199</v>
       </c>
-      <c r="AE33" s="24">
+      <c r="AE33" s="21">
         <v>111.76847127438168</v>
       </c>
       <c r="AG33">
@@ -17270,7 +18313,7 @@
       <c r="T34">
         <v>199</v>
       </c>
-      <c r="AE34" s="24">
+      <c r="AE34" s="21">
         <v>116.34219302568984</v>
       </c>
       <c r="AG34">
@@ -17314,7 +18357,7 @@
       <c r="T35">
         <v>184</v>
       </c>
-      <c r="AE35" s="24">
+      <c r="AE35" s="21">
         <v>133.59735425075155</v>
       </c>
       <c r="AG35">
@@ -17355,7 +18398,7 @@
       <c r="T36">
         <v>162</v>
       </c>
-      <c r="AE36" s="24">
+      <c r="AE36" s="21">
         <v>134.42371509249278</v>
       </c>
       <c r="AG36">
@@ -17396,7 +18439,7 @@
       <c r="T37">
         <v>146</v>
       </c>
-      <c r="AE37" s="24">
+      <c r="AE37" s="21">
         <v>130.79268408149582</v>
       </c>
       <c r="AG37">
@@ -17437,7 +18480,7 @@
       <c r="T38">
         <v>166</v>
       </c>
-      <c r="AE38" s="24">
+      <c r="AE38" s="21">
         <v>133.69720367666622</v>
       </c>
       <c r="AG38">
@@ -17478,7 +18521,7 @@
       <c r="T39">
         <v>171</v>
       </c>
-      <c r="AE39" s="24">
+      <c r="AE39" s="21">
         <v>127.55353870819636</v>
       </c>
     </row>
@@ -17507,7 +18550,7 @@
       <c r="T40">
         <v>180</v>
       </c>
-      <c r="AE40" s="24">
+      <c r="AE40" s="21">
         <v>132.77393265679262</v>
       </c>
     </row>
@@ -17536,7 +18579,7 @@
       <c r="T41">
         <v>193</v>
       </c>
-      <c r="AE41" s="24">
+      <c r="AE41" s="21">
         <v>138.81931269995454</v>
       </c>
     </row>
@@ -17565,7 +18608,7 @@
       <c r="T42">
         <v>181</v>
       </c>
-      <c r="AE42" s="24">
+      <c r="AE42" s="21">
         <v>133.23348093769877</v>
       </c>
     </row>
@@ -17594,7 +18637,7 @@
       <c r="T43">
         <v>183</v>
       </c>
-      <c r="AE43" s="24">
+      <c r="AE43" s="21">
         <v>121.02369692404856</v>
       </c>
     </row>
@@ -17623,7 +18666,7 @@
       <c r="T44">
         <v>218</v>
       </c>
-      <c r="AE44" s="24">
+      <c r="AE44" s="21">
         <v>129.59914532348267</v>
       </c>
     </row>
@@ -17652,7 +18695,7 @@
       <c r="T45">
         <v>230</v>
       </c>
-      <c r="AE45" s="24">
+      <c r="AE45" s="21">
         <v>132.83565006687212</v>
       </c>
     </row>
@@ -17681,7 +18724,7 @@
       <c r="T46">
         <v>242</v>
       </c>
-      <c r="AE46" s="24">
+      <c r="AE46" s="21">
         <v>130.21723290135554</v>
       </c>
     </row>
@@ -17710,7 +18753,7 @@
       <c r="T47">
         <v>209</v>
       </c>
-      <c r="AE47" s="24">
+      <c r="AE47" s="21">
         <v>127.44630923574098</v>
       </c>
     </row>
@@ -17739,7 +18782,7 @@
       <c r="T48">
         <v>191</v>
       </c>
-      <c r="AE48" s="24">
+      <c r="AE48" s="21">
         <v>130.00040322164583</v>
       </c>
     </row>
@@ -17768,7 +18811,7 @@
       <c r="T49">
         <v>172</v>
       </c>
-      <c r="AE49" s="24">
+      <c r="AE49" s="21">
         <v>125.78164564638354</v>
       </c>
     </row>
@@ -17797,7 +18840,7 @@
       <c r="T50">
         <v>194</v>
       </c>
-      <c r="AE50" s="24">
+      <c r="AE50" s="21">
         <v>121.34126793481467</v>
       </c>
     </row>
@@ -17826,7 +18869,7 @@
       <c r="T51">
         <v>196</v>
       </c>
-      <c r="AE51" s="24">
+      <c r="AE51" s="21">
         <v>101.8424847432793</v>
       </c>
     </row>
@@ -17855,7 +18898,7 @@
       <c r="T52">
         <v>196</v>
       </c>
-      <c r="AE52" s="24">
+      <c r="AE52" s="21">
         <v>99.740057431169205</v>
       </c>
     </row>
@@ -17884,7 +18927,7 @@
       <c r="T53">
         <v>236</v>
       </c>
-      <c r="AE53" s="24">
+      <c r="AE53" s="21">
         <v>106.15293681009403</v>
       </c>
     </row>
@@ -17913,7 +18956,7 @@
       <c r="T54">
         <v>235</v>
       </c>
-      <c r="AE54" s="24">
+      <c r="AE54" s="21">
         <v>102.4182895596909</v>
       </c>
     </row>
@@ -17942,7 +18985,7 @@
       <c r="T55">
         <v>229</v>
       </c>
-      <c r="AE55" s="24">
+      <c r="AE55" s="21">
         <v>101.05809856660912</v>
       </c>
     </row>
@@ -17971,7 +19014,7 @@
       <c r="T56">
         <v>243</v>
       </c>
-      <c r="AE56" s="24">
+      <c r="AE56" s="21">
         <v>99.646304612975783</v>
       </c>
     </row>
@@ -18000,7 +19043,7 @@
       <c r="T57">
         <v>264</v>
       </c>
-      <c r="AE57" s="24">
+      <c r="AE57" s="21">
         <v>96.477422021366223</v>
       </c>
     </row>
@@ -18029,7 +19072,7 @@
       <c r="T58">
         <v>272</v>
       </c>
-      <c r="AE58" s="24">
+      <c r="AE58" s="21">
         <v>105.00212575233934</v>
       </c>
     </row>
@@ -18058,7 +19101,7 @@
       <c r="T59">
         <v>237</v>
       </c>
-      <c r="AE59" s="24">
+      <c r="AE59" s="21">
         <v>97.832320246932028</v>
       </c>
     </row>
@@ -18087,7 +19130,7 @@
       <c r="T60">
         <v>211</v>
       </c>
-      <c r="AE60" s="24">
+      <c r="AE60" s="21">
         <v>97.650077942897553</v>
       </c>
     </row>
@@ -18116,7 +19159,7 @@
       <c r="T61">
         <v>180</v>
       </c>
-      <c r="AE61" s="24">
+      <c r="AE61" s="21">
         <v>87.417081045774282</v>
       </c>
     </row>
@@ -18145,7 +19188,7 @@
       <c r="T62">
         <v>201</v>
       </c>
-      <c r="AE62" s="24">
+      <c r="AE62" s="21">
         <v>91.859332573342016</v>
       </c>
     </row>
@@ -18174,7 +19217,7 @@
       <c r="T63">
         <v>204</v>
       </c>
-      <c r="AE63" s="24">
+      <c r="AE63" s="21">
         <v>93.677125189037824</v>
       </c>
     </row>
@@ -18203,7 +19246,7 @@
       <c r="T64">
         <v>188</v>
       </c>
-      <c r="AE64" s="24">
+      <c r="AE64" s="21">
         <v>101.82128245639024</v>
       </c>
     </row>
@@ -18232,7 +19275,7 @@
       <c r="T65">
         <v>235</v>
       </c>
-      <c r="AE65" s="24">
+      <c r="AE65" s="21">
         <v>98.117452001968104</v>
       </c>
     </row>
@@ -18261,7 +19304,7 @@
       <c r="T66">
         <v>227</v>
       </c>
-      <c r="AE66" s="24">
+      <c r="AE66" s="21">
         <v>101.5500237044058</v>
       </c>
     </row>
@@ -18290,7 +19333,7 @@
       <c r="T67">
         <v>234</v>
       </c>
-      <c r="AE67" s="24">
+      <c r="AE67" s="21">
         <v>112.87466949488169</v>
       </c>
     </row>
@@ -18319,7 +19362,7 @@
       <c r="T68">
         <v>264</v>
       </c>
-      <c r="AE68" s="24">
+      <c r="AE68" s="21">
         <v>104.14147907825084</v>
       </c>
     </row>
@@ -18348,7 +19391,7 @@
       <c r="T69">
         <v>302</v>
       </c>
-      <c r="AE69" s="24">
+      <c r="AE69" s="21">
         <v>103.75481912649823</v>
       </c>
     </row>
@@ -18377,7 +19420,7 @@
       <c r="T70">
         <v>293</v>
       </c>
-      <c r="AE70" s="24">
+      <c r="AE70" s="21">
         <v>114.43289567660507</v>
       </c>
     </row>
@@ -18400,7 +19443,7 @@
       <c r="T71">
         <v>259</v>
       </c>
-      <c r="AE71" s="24">
+      <c r="AE71" s="21">
         <v>100.57467577668243</v>
       </c>
     </row>
@@ -18423,7 +19466,7 @@
       <c r="T72">
         <v>229</v>
       </c>
-      <c r="AE72" s="24">
+      <c r="AE72" s="21">
         <v>95.838124167500794</v>
       </c>
     </row>
@@ -18446,7 +19489,7 @@
       <c r="T73">
         <v>203</v>
       </c>
-      <c r="AE73" s="24">
+      <c r="AE73" s="21">
         <v>94.356272353925078</v>
       </c>
     </row>
@@ -18469,7 +19512,7 @@
       <c r="T74">
         <v>229</v>
       </c>
-      <c r="AE74" s="24">
+      <c r="AE74" s="21">
         <v>91.944474503903976</v>
       </c>
     </row>
@@ -18492,7 +19535,7 @@
       <c r="T75">
         <v>242</v>
       </c>
-      <c r="AE75" s="24">
+      <c r="AE75" s="21">
         <v>99.508130080644079</v>
       </c>
     </row>
@@ -18515,7 +19558,7 @@
       <c r="T76">
         <v>233</v>
       </c>
-      <c r="AE76" s="24">
+      <c r="AE76" s="21">
         <v>100.48678727786546</v>
       </c>
     </row>
@@ -18538,7 +19581,7 @@
       <c r="T77">
         <v>267</v>
       </c>
-      <c r="AE77" s="24">
+      <c r="AE77" s="21">
         <v>100.14040925450179</v>
       </c>
     </row>
@@ -18561,7 +19604,7 @@
       <c r="T78">
         <v>269</v>
       </c>
-      <c r="AE78" s="24">
+      <c r="AE78" s="21">
         <v>105.10820796940389</v>
       </c>
     </row>
@@ -18584,7 +19627,7 @@
       <c r="T79">
         <v>270</v>
       </c>
-      <c r="AE79" s="24">
+      <c r="AE79" s="21">
         <v>100.07736060909681</v>
       </c>
     </row>
@@ -24375,7 +25418,7 @@
   <dimension ref="B2:P185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24386,14 +25429,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="O2" s="26" t="s">
+      <c r="E2" s="25"/>
+      <c r="O2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="26"/>
+      <c r="P2" s="25"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D3" s="3" t="s">
@@ -26054,7 +27097,7 @@
   <dimension ref="B2:M55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26069,21 +27112,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="25"/>
       <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="str" cm="1">
+      <c r="K2" s="9" t="str" cm="1">
         <f t="array" ref="K2:L9">TRANSPOSE(_xll.Model.Accuracy(C9))</f>
         <v>Index</v>
       </c>
-      <c r="L2" t="str">
+      <c r="L2" s="9" t="str">
         <v>Training set</v>
       </c>
     </row>
@@ -26106,10 +27149,10 @@
         <f t="array" ref="I3:I21">_xll.Model.Result(C9, E3)</f>
         <v>loglik</v>
       </c>
-      <c r="K3" t="str">
+      <c r="K3" s="6" t="str">
         <v>ME</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="6">
         <v>11.612762305480123</v>
       </c>
     </row>
@@ -26130,10 +27173,10 @@
       <c r="I4" s="6" t="str">
         <v>aic</v>
       </c>
-      <c r="K4" t="str">
+      <c r="K4" s="6" t="str">
         <v>RMSE</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="6">
         <v>52.207688756133287</v>
       </c>
     </row>
@@ -26151,10 +27194,10 @@
       <c r="I5" s="6" t="str">
         <v>bic</v>
       </c>
-      <c r="K5" t="str">
+      <c r="K5" s="6" t="str">
         <v>MAE</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="6">
         <v>43.94480728608594</v>
       </c>
     </row>
@@ -26174,10 +27217,10 @@
       <c r="I6" s="6" t="str">
         <v>aicc</v>
       </c>
-      <c r="K6" t="str">
+      <c r="K6" s="6" t="str">
         <v>MPE</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="6">
         <v>-66.399899245370847</v>
       </c>
     </row>
@@ -26197,10 +27240,10 @@
       <c r="I7" s="6" t="str">
         <v>mse</v>
       </c>
-      <c r="K7" t="str">
+      <c r="K7" s="6" t="str">
         <v>MAPE</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="6">
         <v>103.54686059216444</v>
       </c>
     </row>
@@ -26214,10 +27257,10 @@
       <c r="I8" s="6" t="str">
         <v>amse</v>
       </c>
-      <c r="K8" t="str">
+      <c r="K8" s="6" t="str">
         <v>MASE</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="6">
         <v>0.98641542729710308</v>
       </c>
     </row>
@@ -26238,10 +27281,10 @@
       <c r="I9" s="6" t="str">
         <v>fit</v>
       </c>
-      <c r="K9" t="str">
+      <c r="K9" s="6" t="str">
         <v>ACF1</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="6">
         <v>0.34553162556384487</v>
       </c>
     </row>
@@ -26266,11 +27309,11 @@
       <c r="I11" s="6" t="str">
         <v>fitted</v>
       </c>
-      <c r="K11" t="str" cm="1">
+      <c r="K11" s="6" t="str" cm="1">
         <f t="array" ref="K11:L13">_xll.Model.Result(C9,E3,I13,TRUE)</f>
         <v>Index</v>
       </c>
-      <c r="L11" t="str">
+      <c r="L11" s="6" t="str">
         <v>SES3$model$par</v>
       </c>
     </row>
@@ -26284,10 +27327,10 @@
       <c r="I12" s="6" t="str">
         <v>states</v>
       </c>
-      <c r="K12" t="str">
+      <c r="K12" s="6" t="str">
         <v>l</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="6">
         <v>94.893750000000011</v>
       </c>
     </row>
@@ -26295,10 +27338,10 @@
       <c r="I13" s="6" t="str">
         <v>par</v>
       </c>
-      <c r="K13" t="str">
+      <c r="K13" s="6" t="str">
         <v>alpha</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="6">
         <v>0.1</v>
       </c>
     </row>
@@ -26676,26 +27719,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CC4ACC-C124-4588-ADC9-44AA7F126FFF}">
   <dimension ref="B2:Y114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" customWidth="1"/>
     <col min="7" max="7" width="16.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
     <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="25"/>
       <c r="E2" s="10" t="s">
         <v>28</v>
       </c>
@@ -26889,7 +27930,7 @@
         <f t="array" ref="E18:E50">_xll.Model.Result(C14,E17)</f>
         <v>818.78701112477847</v>
       </c>
-      <c r="F18" s="23" cm="1">
+      <c r="F18" s="20" cm="1">
         <f t="array" ref="F18:F50">_xll.Model.Result(C14,F17)</f>
         <v>-15.897011124778487</v>
       </c>
@@ -26912,9 +27953,8 @@
         <v>31</v>
       </c>
       <c r="K19" t="str" cm="1">
-        <f t="array" ref="K19">_xll.Model.Result($C$14,E3,P3)</f>
-        <v xml:space="preserve">Exception: Error: object 'DES10' not found
-</v>
+        <f t="array" ref="K19">_xll.Model.Result(C14,E3,V3)</f>
+        <v>holt(y = Customers)</v>
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.3">
@@ -27003,13 +28043,14 @@
       <c r="F27">
         <v>-73.037940341173453</v>
       </c>
-      <c r="J27" t="str" cm="1">
+      <c r="J27" s="9" t="str" cm="1">
         <f t="array" ref="J27:K34">TRANSPOSE(_xll.Model.Accuracy(C14))</f>
         <v>Index</v>
       </c>
-      <c r="K27" t="str">
+      <c r="K27" s="9" t="str">
         <v>Training set</v>
       </c>
+      <c r="L27" s="10"/>
     </row>
     <row r="28" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E28">
@@ -27018,10 +28059,10 @@
       <c r="F28">
         <v>89.253944290176833</v>
       </c>
-      <c r="J28" t="str">
+      <c r="J28" s="6" t="str">
         <v>ME</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="6">
         <v>35.469257141905089</v>
       </c>
       <c r="L28" t="s">
@@ -27035,10 +28076,10 @@
       <c r="F29">
         <v>394.81791712870495</v>
       </c>
-      <c r="J29" t="str">
+      <c r="J29" s="6" t="str">
         <v>RMSE</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="6">
         <v>369.2612097747753</v>
       </c>
       <c r="L29" t="s">
@@ -27052,10 +28093,10 @@
       <c r="F30">
         <v>355.26426416883101</v>
       </c>
-      <c r="J30" t="str">
+      <c r="J30" s="6" t="str">
         <v>MAE</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="6">
         <v>266.62488904796811</v>
       </c>
       <c r="L30" t="s">
@@ -27069,10 +28110,10 @@
       <c r="F31">
         <v>-408.97208343212606</v>
       </c>
-      <c r="J31" t="str">
+      <c r="J31" s="6" t="str">
         <v>MPE</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="6">
         <v>1.1856885257676359</v>
       </c>
       <c r="L31" t="s">
@@ -27086,10 +28127,10 @@
       <c r="F32">
         <v>301.7776855019556</v>
       </c>
-      <c r="J32" t="str">
+      <c r="J32" s="6" t="str">
         <v>MAPE</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="6">
         <v>7.9316602444015754</v>
       </c>
       <c r="L32" t="s">
@@ -27103,10 +28144,10 @@
       <c r="F33">
         <v>-7.0382615847001944</v>
       </c>
-      <c r="J33" t="str">
+      <c r="J33" s="6" t="str">
         <v>MASE</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="6">
         <v>0.79817281304908116</v>
       </c>
       <c r="L33" t="s">
@@ -27120,10 +28161,10 @@
       <c r="F34">
         <v>64.193729981561773</v>
       </c>
-      <c r="J34" t="str">
+      <c r="J34" s="6" t="str">
         <v>ACF1</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="6">
         <v>-2.5814436079597814E-2</v>
       </c>
       <c r="L34" t="s">
@@ -27486,10 +28527,10 @@
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" t="s">
         <v>164</v>
-      </c>
-      <c r="C66" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
@@ -27780,14 +28821,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBC7AC4-A024-4D6F-BB9E-1451648762EF}">
   <dimension ref="B2:O51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" customWidth="1"/>
     <col min="5" max="6" width="11.88671875" customWidth="1"/>
     <col min="13" max="13" width="11.77734375" customWidth="1"/>
@@ -27833,15 +28873,15 @@
       <c r="B5" s="10"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
@@ -28523,7 +29563,7 @@
   <dimension ref="B2:W104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28534,10 +29574,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="25"/>
       <c r="E2" t="s">
         <v>28</v>
       </c>
@@ -29619,909 +30659,215 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D562DCAA-9A4E-4A3E-8308-7D30612CCEAE}">
-  <dimension ref="B2:EX32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3498149E-DF07-4EDD-8156-0D8C6A2C5033}">
+  <dimension ref="B2:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="J2" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" t="str" cm="1">
-        <f t="array" ref="J3:J20">_xll.Model.Results(C16)</f>
-        <v>coef</v>
-      </c>
-      <c r="N3" t="str" cm="1">
-        <f t="array" ref="N3:P4">TRANSPOSE(_xll.Model.Result($C$16,J3,,TRUE))</f>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" t="str" cm="1">
+        <f t="array" ref="F3">_xll.RScript.Evaluate(B3)</f>
+        <v>fit</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="13" t="str" cm="1">
+        <f t="array" ref="F4">_xll.RScript.Evaluate(B4)</f>
+        <v>fc</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="13" t="str" cm="1">
+        <f t="array" ref="F5">_xll.RScript.Evaluate(B5)</f>
+        <v>fc</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F8" t="str" cm="1">
+        <f t="array" ref="F8:F26">_xll.Model.Results(F3)</f>
+        <v>loglik</v>
+      </c>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">_xll.Model.Result($F$3,F8)</f>
+        <v>-198.75820053269101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F9" t="str">
+        <v>aic</v>
+      </c>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">_xll.Model.Result($F$3,F9)</f>
+        <v>409.51640106538201</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F10" t="str">
+        <v>bic</v>
+      </c>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">_xll.Model.Result($F$3,F10)</f>
+        <v>422.08246843871461</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F11" t="str">
+        <v>aicc</v>
+      </c>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">_xll.Model.Result($F$3,F11)</f>
+        <v>411.10130672575934</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F12" t="str">
+        <v>mse</v>
+      </c>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">_xll.Model.Result($F$3,F12)</f>
+        <v>12.565171109727306</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F13" t="str">
+        <v>amse</v>
+      </c>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">_xll.Model.Result($F$3,F13)</f>
+        <v>79.582572305463614</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F14" t="str">
+        <v>fit</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F15" t="str">
+        <v>residuals</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F16" t="str">
+        <v>fitted</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F17" t="str">
+        <v>states</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F18" t="str">
+        <v>par</v>
+      </c>
+      <c r="J18" t="str" cm="1">
+        <f t="array" ref="J18:K23">_xll.Model.Result($F$3,F18,,TRUE)</f>
         <v>Index</v>
       </c>
-      <c r="O3" t="str">
-        <v>ma1</v>
-      </c>
-      <c r="P3" t="str">
-        <v>sma1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="str" cm="1">
-        <f t="array" ref="C4">_xll.RScript.CreateVector(tAirPassengers[[#Headers],[AirPassengers]],tAirPassengers[AirPassengers])</f>
-        <v>AirPassengers</v>
-      </c>
-      <c r="J4" t="str">
+      <c r="K18" t="str">
+        <v>fit$par</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F19" t="str">
+        <v>m</v>
+      </c>
+      <c r="J19" t="str">
+        <v>alpha</v>
+      </c>
+      <c r="K19">
+        <v>0.99902057092394525</v>
+      </c>
+    </row>
+    <row r="20" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F20" t="str">
+        <v>method</v>
+      </c>
+      <c r="J20" t="str">
+        <v>beta</v>
+      </c>
+      <c r="K20">
+        <v>0.99902037879377559</v>
+      </c>
+    </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F21" t="str">
+        <v>series</v>
+      </c>
+      <c r="J21" t="str">
+        <v>phi</v>
+      </c>
+      <c r="K21">
+        <v>0.80000010042229097</v>
+      </c>
+    </row>
+    <row r="22" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F22" t="str">
+        <v>components</v>
+      </c>
+      <c r="J22" t="str">
+        <v>l</v>
+      </c>
+      <c r="K22">
+        <v>90.568912123958413</v>
+      </c>
+    </row>
+    <row r="23" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F23" t="str">
+        <v>call</v>
+      </c>
+      <c r="J23" t="str">
+        <v>b</v>
+      </c>
+      <c r="K23">
+        <v>-0.30520081322766934</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F24" t="str">
+        <v>initstate</v>
+      </c>
+    </row>
+    <row r="25" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F25" t="str">
         <v>sigma2</v>
       </c>
-      <c r="K4" cm="1">
-        <f t="array" ref="K4">TRANSPOSE(_xll.Model.Result($C$16,J4))</f>
-        <v>137.52485061798205</v>
-      </c>
-      <c r="N4" t="str">
-        <v>air.model$coef</v>
-      </c>
-      <c r="O4">
-        <v>-0.30867366607559699</v>
-      </c>
-      <c r="P4">
-        <v>-0.10744703492617209</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" t="str" cm="1">
-        <f t="array" ref="F5:H7">TRANSPOSE(_xll.Model.Result($C$16,J5, , TRUE))</f>
-        <v>Index</v>
-      </c>
-      <c r="G5" t="str">
-        <v>ma1</v>
-      </c>
-      <c r="H5" t="str">
-        <v>sma1</v>
-      </c>
-      <c r="J5" t="str">
-        <v>var.coef</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" t="str">
-        <v>ma1</v>
-      </c>
-      <c r="G6">
-        <v>7.9121852845489768E-3</v>
-      </c>
-      <c r="H6">
-        <v>-9.3499573202351287E-4</v>
-      </c>
-      <c r="J6" t="str">
-        <v>mask</v>
-      </c>
-      <c r="K6" t="b" cm="1">
-        <f t="array" ref="K6:L6">TRANSPOSE(_xll.Model.Result($C$16,J6))</f>
-        <v>1</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="F7" t="str">
-        <v>sma1</v>
-      </c>
-      <c r="G7">
-        <v>-9.3499573202351276E-4</v>
-      </c>
-      <c r="H7">
-        <v>6.8586245800864925E-3</v>
-      </c>
-      <c r="J7" t="str">
-        <v>loglik</v>
-      </c>
-      <c r="K7" cm="1">
-        <f t="array" ref="K7">TRANSPOSE(_xll.Model.Result($C$16,J7))</f>
-        <v>-507.50144324098954</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="J8" t="str">
-        <v>aic</v>
-      </c>
-      <c r="K8" cm="1">
-        <f t="array" ref="K8">TRANSPOSE(_xll.Model.Result($C$16,J8))</f>
-        <v>1021.0028864819791</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="J9" t="str">
-        <v>arma</v>
-      </c>
-      <c r="K9" cm="1">
-        <f t="array" ref="K9:Q9">TRANSPOSE(_xll.Model.Result($C$16,J9))</f>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>12</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="J10" t="str">
-        <v>residuals</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="J11" t="str">
-        <v>call</v>
-      </c>
-      <c r="K11" t="str" cm="1">
-        <f t="array" ref="K11">TRANSPOSE(_xll.Model.Result($C$16,J11))</f>
-        <v xml:space="preserve">Arima(y = AirPassengers, order = c(0, 1, 1), seasonal = list(order = c(0, </v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="J12" t="str">
-        <v>series</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="J13" t="str">
-        <v>code</v>
-      </c>
-      <c r="K13" cm="1">
-        <f t="array" ref="K13">TRANSPOSE(_xll.Model.Result($C$16,J13))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="J14" t="str">
-        <v>n.cond</v>
-      </c>
-      <c r="K14" cm="1">
-        <f t="array" ref="K14">TRANSPOSE(_xll.Model.Result($C$16,J14))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="J15" t="str">
-        <v>nobs</v>
-      </c>
-      <c r="K15" cm="1">
-        <f t="array" ref="K15">TRANSPOSE(_xll.Model.Result($C$16,J15))</f>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="6" t="str" cm="1">
-        <f t="array" ref="C16">_xll.Forecast.Arima(C3,C4,B5:C13)</f>
-        <v>air.model</v>
-      </c>
-      <c r="J16" t="str">
-        <v>model</v>
-      </c>
-    </row>
-    <row r="17" spans="2:154" x14ac:dyDescent="0.3">
-      <c r="J17" t="str">
-        <v>aicc</v>
-      </c>
-      <c r="K17" cm="1">
-        <f t="array" ref="K17">TRANSPOSE(_xll.Model.Result($C$16,J17))</f>
-        <v>1021.1918628599318</v>
-      </c>
-    </row>
-    <row r="18" spans="2:154" x14ac:dyDescent="0.3">
-      <c r="B18" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="J18" t="str">
-        <v>bic</v>
-      </c>
-      <c r="K18" cm="1">
-        <f t="array" ref="K18">TRANSPOSE(_xll.Model.Result($C$16,J18))</f>
-        <v>1029.6284784515826</v>
-      </c>
-    </row>
-    <row r="19" spans="2:154" x14ac:dyDescent="0.3">
-      <c r="J19" t="str">
+    </row>
+    <row r="26" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F26" t="str">
         <v>x</v>
       </c>
-      <c r="K19" cm="1">
-        <f t="array" ref="K19:EX19">TRANSPOSE(_xll.Model.Result($C$16,J19))</f>
-        <v>112</v>
-      </c>
-      <c r="L19">
-        <v>118</v>
-      </c>
-      <c r="M19">
-        <v>132</v>
-      </c>
-      <c r="N19">
-        <v>129</v>
-      </c>
-      <c r="O19">
-        <v>121</v>
-      </c>
-      <c r="P19">
-        <v>135</v>
-      </c>
-      <c r="Q19">
-        <v>148</v>
-      </c>
-      <c r="R19">
-        <v>148</v>
-      </c>
-      <c r="S19">
-        <v>136</v>
-      </c>
-      <c r="T19">
-        <v>119</v>
-      </c>
-      <c r="U19">
-        <v>104</v>
-      </c>
-      <c r="V19">
-        <v>118</v>
-      </c>
-      <c r="W19">
-        <v>115</v>
-      </c>
-      <c r="X19">
-        <v>126</v>
-      </c>
-      <c r="Y19">
-        <v>141</v>
-      </c>
-      <c r="Z19">
-        <v>135</v>
-      </c>
-      <c r="AA19">
-        <v>125</v>
-      </c>
-      <c r="AB19">
-        <v>149</v>
-      </c>
-      <c r="AC19">
-        <v>170</v>
-      </c>
-      <c r="AD19">
-        <v>170</v>
-      </c>
-      <c r="AE19">
-        <v>158</v>
-      </c>
-      <c r="AF19">
-        <v>133</v>
-      </c>
-      <c r="AG19">
-        <v>114</v>
-      </c>
-      <c r="AH19">
-        <v>140</v>
-      </c>
-      <c r="AI19">
-        <v>145</v>
-      </c>
-      <c r="AJ19">
-        <v>150</v>
-      </c>
-      <c r="AK19">
-        <v>178</v>
-      </c>
-      <c r="AL19">
-        <v>163</v>
-      </c>
-      <c r="AM19">
-        <v>172</v>
-      </c>
-      <c r="AN19">
-        <v>178</v>
-      </c>
-      <c r="AO19">
-        <v>199</v>
-      </c>
-      <c r="AP19">
-        <v>199</v>
-      </c>
-      <c r="AQ19">
-        <v>184</v>
-      </c>
-      <c r="AR19">
-        <v>162</v>
-      </c>
-      <c r="AS19">
-        <v>146</v>
-      </c>
-      <c r="AT19">
-        <v>166</v>
-      </c>
-      <c r="AU19">
-        <v>171</v>
-      </c>
-      <c r="AV19">
-        <v>180</v>
-      </c>
-      <c r="AW19">
-        <v>193</v>
-      </c>
-      <c r="AX19">
-        <v>181</v>
-      </c>
-      <c r="AY19">
-        <v>183</v>
-      </c>
-      <c r="AZ19">
-        <v>218</v>
-      </c>
-      <c r="BA19">
-        <v>230</v>
-      </c>
-      <c r="BB19">
-        <v>242</v>
-      </c>
-      <c r="BC19">
-        <v>209</v>
-      </c>
-      <c r="BD19">
-        <v>191</v>
-      </c>
-      <c r="BE19">
-        <v>172</v>
-      </c>
-      <c r="BF19">
-        <v>194</v>
-      </c>
-      <c r="BG19">
-        <v>196</v>
-      </c>
-      <c r="BH19">
-        <v>196</v>
-      </c>
-      <c r="BI19">
-        <v>236</v>
-      </c>
-      <c r="BJ19">
-        <v>235</v>
-      </c>
-      <c r="BK19">
-        <v>229</v>
-      </c>
-      <c r="BL19">
-        <v>243</v>
-      </c>
-      <c r="BM19">
-        <v>264</v>
-      </c>
-      <c r="BN19">
-        <v>272</v>
-      </c>
-      <c r="BO19">
-        <v>237</v>
-      </c>
-      <c r="BP19">
-        <v>211</v>
-      </c>
-      <c r="BQ19">
-        <v>180</v>
-      </c>
-      <c r="BR19">
-        <v>201</v>
-      </c>
-      <c r="BS19">
-        <v>204</v>
-      </c>
-      <c r="BT19">
-        <v>188</v>
-      </c>
-      <c r="BU19">
-        <v>235</v>
-      </c>
-      <c r="BV19">
-        <v>227</v>
-      </c>
-      <c r="BW19">
-        <v>234</v>
-      </c>
-      <c r="BX19">
-        <v>264</v>
-      </c>
-      <c r="BY19">
-        <v>302</v>
-      </c>
-      <c r="BZ19">
-        <v>293</v>
-      </c>
-      <c r="CA19">
-        <v>259</v>
-      </c>
-      <c r="CB19">
-        <v>229</v>
-      </c>
-      <c r="CC19">
-        <v>203</v>
-      </c>
-      <c r="CD19">
-        <v>229</v>
-      </c>
-      <c r="CE19">
-        <v>242</v>
-      </c>
-      <c r="CF19">
-        <v>233</v>
-      </c>
-      <c r="CG19">
-        <v>267</v>
-      </c>
-      <c r="CH19">
-        <v>269</v>
-      </c>
-      <c r="CI19">
-        <v>270</v>
-      </c>
-      <c r="CJ19">
-        <v>315</v>
-      </c>
-      <c r="CK19">
-        <v>364</v>
-      </c>
-      <c r="CL19">
-        <v>347</v>
-      </c>
-      <c r="CM19">
-        <v>312</v>
-      </c>
-      <c r="CN19">
-        <v>274</v>
-      </c>
-      <c r="CO19">
-        <v>237</v>
-      </c>
-      <c r="CP19">
-        <v>278</v>
-      </c>
-      <c r="CQ19">
-        <v>284</v>
-      </c>
-      <c r="CR19">
-        <v>277</v>
-      </c>
-      <c r="CS19">
-        <v>317</v>
-      </c>
-      <c r="CT19">
-        <v>313</v>
-      </c>
-      <c r="CU19">
-        <v>318</v>
-      </c>
-      <c r="CV19">
-        <v>374</v>
-      </c>
-      <c r="CW19">
-        <v>413</v>
-      </c>
-      <c r="CX19">
-        <v>405</v>
-      </c>
-      <c r="CY19">
-        <v>355</v>
-      </c>
-      <c r="CZ19">
-        <v>306</v>
-      </c>
-      <c r="DA19">
-        <v>271</v>
-      </c>
-      <c r="DB19">
-        <v>306</v>
-      </c>
-      <c r="DC19">
-        <v>315</v>
-      </c>
-      <c r="DD19">
-        <v>301</v>
-      </c>
-      <c r="DE19">
-        <v>356</v>
-      </c>
-      <c r="DF19">
-        <v>348</v>
-      </c>
-      <c r="DG19">
-        <v>355</v>
-      </c>
-      <c r="DH19">
-        <v>422</v>
-      </c>
-      <c r="DI19">
-        <v>465</v>
-      </c>
-      <c r="DJ19">
-        <v>467</v>
-      </c>
-      <c r="DK19">
-        <v>404</v>
-      </c>
-      <c r="DL19">
-        <v>347</v>
-      </c>
-      <c r="DM19">
-        <v>305</v>
-      </c>
-      <c r="DN19">
-        <v>336</v>
-      </c>
-      <c r="DO19">
-        <v>340</v>
-      </c>
-      <c r="DP19">
-        <v>318</v>
-      </c>
-      <c r="DQ19">
-        <v>362</v>
-      </c>
-      <c r="DR19">
-        <v>348</v>
-      </c>
-      <c r="DS19">
-        <v>363</v>
-      </c>
-      <c r="DT19">
-        <v>435</v>
-      </c>
-      <c r="DU19">
-        <v>491</v>
-      </c>
-      <c r="DV19">
-        <v>505</v>
-      </c>
-      <c r="DW19">
-        <v>404</v>
-      </c>
-      <c r="DX19">
-        <v>359</v>
-      </c>
-      <c r="DY19">
-        <v>310</v>
-      </c>
-      <c r="DZ19">
-        <v>337</v>
-      </c>
-      <c r="EA19">
-        <v>360</v>
-      </c>
-      <c r="EB19">
-        <v>342</v>
-      </c>
-      <c r="EC19">
-        <v>406</v>
-      </c>
-      <c r="ED19">
-        <v>396</v>
-      </c>
-      <c r="EE19">
-        <v>420</v>
-      </c>
-      <c r="EF19">
-        <v>472</v>
-      </c>
-      <c r="EG19">
-        <v>548</v>
-      </c>
-      <c r="EH19">
-        <v>559</v>
-      </c>
-      <c r="EI19">
-        <v>463</v>
-      </c>
-      <c r="EJ19">
-        <v>407</v>
-      </c>
-      <c r="EK19">
-        <v>362</v>
-      </c>
-      <c r="EL19">
-        <v>405</v>
-      </c>
-      <c r="EM19">
-        <v>417</v>
-      </c>
-      <c r="EN19">
-        <v>391</v>
-      </c>
-      <c r="EO19">
-        <v>419</v>
-      </c>
-      <c r="EP19">
-        <v>461</v>
-      </c>
-      <c r="EQ19">
-        <v>472</v>
-      </c>
-      <c r="ER19">
-        <v>535</v>
-      </c>
-      <c r="ES19">
-        <v>622</v>
-      </c>
-      <c r="ET19">
-        <v>606</v>
-      </c>
-      <c r="EU19">
-        <v>508</v>
-      </c>
-      <c r="EV19">
-        <v>461</v>
-      </c>
-      <c r="EW19">
-        <v>390</v>
-      </c>
-      <c r="EX19">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="20" spans="2:154" x14ac:dyDescent="0.3">
-      <c r="B20" t="str" cm="1">
-        <f t="array" ref="B20:D32">_xll.RScript.Params(C18, TRUE, TRUE)</f>
-        <v>y</v>
-      </c>
-      <c r="C20" t="str">
-        <v>symbol</v>
-      </c>
-      <c r="D20" t="str">
-        <v>&lt;missing&gt;</v>
-      </c>
-      <c r="J20" t="str">
-        <v>fitted</v>
-      </c>
-    </row>
-    <row r="21" spans="2:154" x14ac:dyDescent="0.3">
-      <c r="B21" t="str">
-        <v>order</v>
-      </c>
-      <c r="C21" t="str">
-        <v>language</v>
-      </c>
-      <c r="D21" t="str">
-        <v>c(0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="22" spans="2:154" x14ac:dyDescent="0.3">
-      <c r="B22" t="str">
-        <v>seasonal</v>
-      </c>
-      <c r="C22" t="str">
-        <v>language</v>
-      </c>
-      <c r="D22" t="str">
-        <v>c(0, 0, 0)</v>
-      </c>
-    </row>
-    <row r="23" spans="2:154" x14ac:dyDescent="0.3">
-      <c r="B23" t="str">
-        <v>xreg</v>
-      </c>
-      <c r="C23" t="str">
-        <v>NULL</v>
-      </c>
-      <c r="D23" t="str">
-        <v>&lt;missing&gt;</v>
-      </c>
-      <c r="J23" t="str" cm="1">
-        <f t="array" ref="J23:J32">_xll.Model.Result($C$16,J16)</f>
-        <v>phi</v>
-      </c>
-    </row>
-    <row r="24" spans="2:154" x14ac:dyDescent="0.3">
-      <c r="B24" t="str">
-        <v>include.mean</v>
-      </c>
-      <c r="C24" t="str">
-        <v>logical</v>
-      </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="str">
-        <v>theta</v>
-      </c>
-    </row>
-    <row r="25" spans="2:154" x14ac:dyDescent="0.3">
-      <c r="B25" t="str">
-        <v>include.drift</v>
-      </c>
-      <c r="C25" t="str">
-        <v>logical</v>
-      </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="str">
-        <v>Delta</v>
-      </c>
-    </row>
-    <row r="26" spans="2:154" x14ac:dyDescent="0.3">
-      <c r="B26" t="str">
-        <v>include.constant</v>
-      </c>
-      <c r="C26" t="str">
-        <v>symbol</v>
-      </c>
-      <c r="D26" t="str">
-        <v>&lt;missing&gt;</v>
-      </c>
-      <c r="J26" t="str">
-        <v>Z</v>
-      </c>
-    </row>
-    <row r="27" spans="2:154" x14ac:dyDescent="0.3">
-      <c r="B27" t="str">
-        <v>lambda</v>
-      </c>
-      <c r="C27" t="str">
-        <v>language</v>
-      </c>
-      <c r="D27" t="str">
-        <v>model$lambda</v>
-      </c>
-      <c r="J27" t="str">
-        <v>a</v>
-      </c>
-    </row>
-    <row r="28" spans="2:154" x14ac:dyDescent="0.3">
-      <c r="B28" t="str">
-        <v>biasadj</v>
-      </c>
-      <c r="C28" t="str">
-        <v>logical</v>
-      </c>
-      <c r="D28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="str">
-        <v>P</v>
-      </c>
-    </row>
-    <row r="29" spans="2:154" x14ac:dyDescent="0.3">
-      <c r="B29" t="str">
-        <v>method</v>
-      </c>
-      <c r="C29" t="str">
-        <v>language</v>
-      </c>
-      <c r="D29" t="str">
-        <v>c("CSS-ML", "ML", "CSS")</v>
-      </c>
-      <c r="J29" t="str">
-        <v>T</v>
-      </c>
-    </row>
-    <row r="30" spans="2:154" x14ac:dyDescent="0.3">
-      <c r="B30" t="str">
-        <v>model</v>
-      </c>
-      <c r="C30" t="str">
-        <v>NULL</v>
-      </c>
-      <c r="D30" t="str">
-        <v>&lt;missing&gt;</v>
-      </c>
-      <c r="J30" t="str">
-        <v>V</v>
-      </c>
-    </row>
-    <row r="31" spans="2:154" x14ac:dyDescent="0.3">
-      <c r="B31" t="str">
-        <v>x</v>
-      </c>
-      <c r="C31" t="str">
-        <v>symbol</v>
-      </c>
-      <c r="D31" t="str">
-        <v>y</v>
-      </c>
-      <c r="J31" t="str">
-        <v>h</v>
-      </c>
-    </row>
-    <row r="32" spans="2:154" x14ac:dyDescent="0.3">
-      <c r="B32" t="str">
-        <v>...</v>
-      </c>
-      <c r="C32" t="str">
-        <v>symbol</v>
-      </c>
-      <c r="D32" t="str">
-        <v>&lt;missing&gt;</v>
-      </c>
-      <c r="J32" t="str">
-        <v>Pn</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelRAddIn/Tests/Forecast.xlsx
+++ b/ExcelRAddIn/Tests/Forecast.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Projects\C#\Office\Office365 AddIns\ExcelRAddIn\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A98C7CC-69BB-41B5-A6C7-6C031F2A82C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7232AD9F-730C-4A92-B5F2-BBA7BD9C3596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="899" firstSheet="9" activeTab="18" xr2:uid="{237949DD-86ED-4837-BFB0-873A1F9330BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="899" activeTab="9" xr2:uid="{237949DD-86ED-4837-BFB0-873A1F9330BE}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="2" r:id="rId1"/>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -966,9 +966,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -985,6 +982,9 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4424,7 +4424,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D562DCAA-9A4E-4A3E-8308-7D30612CCEAE}">
   <dimension ref="B2:EX32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4434,10 +4436,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="37"/>
       <c r="J2" s="10" t="s">
         <v>28</v>
       </c>
@@ -4702,13 +4704,13 @@
       </c>
     </row>
     <row r="19" spans="2:154" x14ac:dyDescent="0.3">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="25" t="s">
         <v>191</v>
       </c>
       <c r="J19" t="str">
@@ -5348,10 +5350,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="37"/>
       <c r="J2" s="10" t="s">
         <v>28</v>
       </c>
@@ -6002,10 +6004,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="37"/>
       <c r="H2" s="7" t="s">
         <v>28</v>
       </c>
@@ -7682,10 +7684,10 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="37"/>
       <c r="E2" t="str" cm="1">
         <f t="array" ref="E2:O2">TRANSPOSE(_xll.Model.Results(C9))</f>
         <v>method</v>
@@ -8935,10 +8937,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:84" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="37"/>
       <c r="E2" t="str" cm="1">
         <f t="array" ref="E2:O2">TRANSPOSE(_xll.Model.Results(C9))</f>
         <v>method</v>
@@ -10726,10 +10728,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="37"/>
       <c r="E2" t="str" cm="1">
         <f t="array" ref="E2:P2">TRANSPOSE(_xll.Model.Results(C9))</f>
         <v>method</v>
@@ -11062,10 +11064,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="37"/>
       <c r="E2" t="str" cm="1">
         <f t="array" ref="E2:N2">TRANSPOSE(_xll.Model.Results(C9))</f>
         <v>model</v>
@@ -11948,10 +11950,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="37"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
@@ -11993,15 +11995,15 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
@@ -12011,26 +12013,26 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="J7" s="16"/>
-      <c r="K7" s="32" t="str" cm="1">
+      <c r="K7" s="31" t="str" cm="1">
         <f t="array" ref="K7:Q8">_xll.Model.Accuracy(C8)</f>
         <v>Index</v>
       </c>
-      <c r="L7" s="33" t="str">
+      <c r="L7" s="32" t="str">
         <v>ME</v>
       </c>
-      <c r="M7" s="33" t="str">
+      <c r="M7" s="32" t="str">
         <v>RMSE</v>
       </c>
-      <c r="N7" s="33" t="str">
+      <c r="N7" s="32" t="str">
         <v>MAE</v>
       </c>
-      <c r="O7" s="33" t="str">
+      <c r="O7" s="32" t="str">
         <v>MPE</v>
       </c>
-      <c r="P7" s="33" t="str">
+      <c r="P7" s="32" t="str">
         <v>MAPE</v>
       </c>
-      <c r="Q7" s="33" t="str">
+      <c r="Q7" s="32" t="str">
         <v>MASE</v>
       </c>
     </row>
@@ -12048,25 +12050,25 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="34" t="str">
+      <c r="K8" s="33" t="str">
         <v>Training set</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="34">
         <v>-2.3728125945569426E-16</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="34">
         <v>54.534506468374872</v>
       </c>
-      <c r="N8" s="35">
+      <c r="N8" s="34">
         <v>40.47955300968804</v>
       </c>
-      <c r="O8" s="35">
+      <c r="O8" s="34">
         <v>-75.33900029820343</v>
       </c>
-      <c r="P8" s="35">
+      <c r="P8" s="34">
         <v>251.9938767537096</v>
       </c>
-      <c r="Q8" s="35">
+      <c r="Q8" s="34">
         <v>0.49449734925101435</v>
       </c>
     </row>
@@ -12118,22 +12120,22 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="K11" s="30" t="str">
+      <c r="K11" s="29" t="str">
         <v>Area</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="30">
         <v>1</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="30">
         <v>145465.08832562366</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="30">
         <v>145465.08832562366</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="30">
         <v>39.129652192045477</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="30">
         <v>1.8246037566969249E-6</v>
       </c>
     </row>
@@ -12146,22 +12148,22 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="K12" s="30" t="str">
+      <c r="K12" s="29" t="str">
         <v>Elevation</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="30">
         <v>1</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="30">
         <v>65666.629692837261</v>
       </c>
-      <c r="N12" s="31">
+      <c r="N12" s="30">
         <v>65666.629692837261</v>
       </c>
-      <c r="O12" s="31">
+      <c r="O12" s="30">
         <v>17.664117281204366</v>
       </c>
-      <c r="P12" s="31">
+      <c r="P12" s="30">
         <v>3.1520105175534223E-4</v>
       </c>
     </row>
@@ -12174,22 +12176,22 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="K13" s="30" t="str">
+      <c r="K13" s="29" t="str">
         <v>Nearest</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="30">
         <v>1</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="30">
         <v>29.309994088102041</v>
       </c>
-      <c r="N13" s="31">
+      <c r="N13" s="30">
         <v>29.309994088102041</v>
       </c>
-      <c r="O13" s="31">
+      <c r="O13" s="30">
         <v>7.8842964151716495E-3</v>
       </c>
-      <c r="P13" s="31">
+      <c r="P13" s="30">
         <v>0.92998278059540307</v>
       </c>
     </row>
@@ -12203,22 +12205,22 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="17"/>
-      <c r="K14" s="30" t="str">
+      <c r="K14" s="29" t="str">
         <v>Scruz</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="30">
         <v>1</v>
       </c>
-      <c r="M14" s="31">
+      <c r="M14" s="30">
         <v>14278.485641368316</v>
       </c>
-      <c r="N14" s="31">
+      <c r="N14" s="30">
         <v>14278.485641368316</v>
       </c>
-      <c r="O14" s="31">
+      <c r="O14" s="30">
         <v>3.8408678220108738</v>
       </c>
-      <c r="P14" s="31">
+      <c r="P14" s="30">
         <v>6.1729080849071229E-2</v>
       </c>
     </row>
@@ -12231,22 +12233,22 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="K15" s="30" t="str">
+      <c r="K15" s="29" t="str">
         <v>Adjacent</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="30">
         <v>1</v>
       </c>
-      <c r="M15" s="31">
+      <c r="M15" s="30">
         <v>66421.481140272663</v>
       </c>
-      <c r="N15" s="31">
+      <c r="N15" s="30">
         <v>66421.481140272663</v>
       </c>
-      <c r="O15" s="31">
+      <c r="O15" s="30">
         <v>17.867169951331583</v>
       </c>
-      <c r="P15" s="31">
+      <c r="P15" s="30">
         <v>2.9650744889825993E-4</v>
       </c>
     </row>
@@ -12259,22 +12261,22 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="K16" s="30" t="str">
+      <c r="K16" s="29" t="str">
         <v>Residuals</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="30">
         <v>24</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16" s="30">
         <v>89220.371872476637</v>
       </c>
-      <c r="N16" s="31">
+      <c r="N16" s="30">
         <v>3717.5154946865264</v>
       </c>
-      <c r="O16" s="31" t="str">
+      <c r="O16" s="30" t="str">
         <v/>
       </c>
-      <c r="P16" s="31" t="str">
+      <c r="P16" s="30" t="str">
         <v/>
       </c>
     </row>
@@ -12326,10 +12328,10 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="K20" s="36" t="s">
+      <c r="K20" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="L20" s="37"/>
+      <c r="L20" s="36"/>
       <c r="M20" s="14"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
@@ -12341,7 +12343,7 @@
         <f t="array" ref="K21:M34">_xll.RScript.Params("lm", TRUE, TRUE)</f>
         <v>formula</v>
       </c>
-      <c r="L21" s="30" t="str">
+      <c r="L21" s="29" t="str">
         <v>symbol</v>
       </c>
       <c r="M21" s="14" t="str">
@@ -12990,10 +12992,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="37"/>
       <c r="F3" s="10" t="s">
         <v>28</v>
       </c>
@@ -14458,10 +14460,10 @@
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="25"/>
+      <c r="C46" s="37"/>
       <c r="R46" t="str">
         <v xml:space="preserve">        if (is.factor(y)) {</v>
       </c>
@@ -14701,7 +14703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9135BF-2115-4D96-AD2D-B561EFF71C80}">
   <dimension ref="B2:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -25418,7 +25420,7 @@
   <dimension ref="B2:P185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25429,14 +25431,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="O2" s="25" t="s">
+      <c r="E2" s="37"/>
+      <c r="O2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="25"/>
+      <c r="P2" s="37"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D3" s="3" t="s">
@@ -27112,10 +27114,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="37"/>
       <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
@@ -27733,10 +27735,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="37"/>
       <c r="E2" s="10" t="s">
         <v>28</v>
       </c>
@@ -28873,15 +28875,15 @@
       <c r="B5" s="10"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
@@ -29574,10 +29576,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="37"/>
       <c r="E2" t="s">
         <v>28</v>
       </c>

--- a/ExcelRAddIn/Tests/Forecast.xlsx
+++ b/ExcelRAddIn/Tests/Forecast.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Projects\C#\Office\Office365 AddIns\ExcelRAddIn\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE3E099-08D8-4A3F-9808-C4AF6A4E0742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F116623-D71E-40C6-A6D9-47C4385813E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="899" firstSheet="8" activeTab="17" xr2:uid="{237949DD-86ED-4837-BFB0-873A1F9330BE}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="899" activeTab="1" xr2:uid="{237949DD-86ED-4837-BFB0-873A1F9330BE}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="2" r:id="rId1"/>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="198">
   <si>
     <t>Day</t>
   </si>
@@ -805,6 +805,43 @@
   <si>
     <t>Arima</t>
   </si>
+  <si>
+    <t>library(ggplot2)</t>
+  </si>
+  <si>
+    <t>library(ggthemes)</t>
+  </si>
+  <si>
+    <t># Convert AirPassengers time series to a data frame</t>
+  </si>
+  <si>
+    <t>data &lt;- data.frame(
+  Year = time(AirPassengers),
+  Passengers = as.numeric(AirPassengers)
+)</t>
+  </si>
+  <si>
+    <t>plot(
+	ggplot(data = data, mapping = aes(x = Year, y = Passengers, )) + 
+	geom_line(colour = 'blue') + 
+	theme_minimal() + 
+	labs(title = 'Monthly Airline Passenger Numbers (1949-1960)', x = 'Year', y = 'Number of Passengers', )
+)</t>
+  </si>
+  <si>
+    <t>plot(
+	ggplot(data = mpg, mapping = aes(x = displ, y = hwy)) + 
+geom_point()
+)</t>
+  </si>
+  <si>
+    <t>plot(
+ggplot(data = data, mapping = aes(x = Year, y = Passengers)) + 
+geom_line(colour = 'blue', linetype = 'dotted') + 
+	labs(title = 'Monthly Airline Passenger Numbers (1949-1960)', x = 'Year', y = 'Number of Passengers', caption = 'Dataset') + 
+theme_minimal()
+)</t>
+  </si>
 </sst>
 </file>
 
@@ -920,7 +957,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -957,6 +994,9 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4392,10 +4432,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="J2" s="10" t="s">
         <v>28</v>
       </c>
@@ -5047,10 +5087,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="H2" s="7" t="s">
         <v>28</v>
       </c>
@@ -6777,10 +6817,10 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="E2" t="str" cm="1">
         <f t="array" ref="E2:O2">TRANSPOSE(_xll.Model.Results(C9))</f>
         <v>method</v>
@@ -8030,10 +8070,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:84" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="E2" t="str" cm="1">
         <f t="array" ref="E2:O2">TRANSPOSE(_xll.Model.Results(C9))</f>
         <v>method</v>
@@ -9821,10 +9861,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="E2" t="str" cm="1">
         <f t="array" ref="E2:P2">TRANSPOSE(_xll.Model.Results(C9))</f>
         <v>method</v>
@@ -10155,10 +10195,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="E2" t="str" cm="1">
         <f t="array" ref="E2:N2">TRANSPOSE(_xll.Model.Results(C9))</f>
         <v>model</v>
@@ -11041,10 +11081,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
@@ -12033,7 +12073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F812DA7-7958-4E93-99D4-1625C4C8E1B7}">
   <dimension ref="B3:AP64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -12048,10 +12088,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="27"/>
       <c r="F3" s="10" t="s">
         <v>28</v>
       </c>
@@ -13516,10 +13556,10 @@
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="26"/>
+      <c r="C46" s="27"/>
       <c r="R46" t="str">
         <v xml:space="preserve">        if (is.factor(y)) {</v>
       </c>
@@ -14849,15 +14889,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA1CB6E-EEA6-410B-8C3F-D152623D3978}">
-  <dimension ref="C2:E3"/>
+  <dimension ref="C2:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:5" x14ac:dyDescent="0.3">
@@ -14876,6 +14916,64 @@
       <c r="E3" t="str" cm="1">
         <f t="array" ref="E3">_xll.RScript.Evaluate(C3, TRUE)</f>
         <v>OK</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" t="str" cm="1">
+        <f t="array" ref="E4">_xll.RScript.Evaluate(C4, TRUE)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" t="str" cm="1">
+        <f t="array" ref="E5">_xll.RScript.Evaluate(C5, TRUE)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="26"/>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C11" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" t="str" cm="1">
+        <f t="array" ref="E11">_xll.RScript.Evaluate(C11, TRUE)</f>
+        <v>data</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="C13" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C16" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16" t="str" cm="1">
+        <f t="array" ref="E16">_xll.RScript.Evaluate(C16, TRUE)</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C19" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" cm="1">
+        <f t="array" aca="1" ref="E19" ca="1">_xll.RScript.Evaluate(C19, TRUE)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14887,7 +14985,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16A5A11-FD74-4F49-8237-7EB8CA3CF65D}">
   <dimension ref="B2:AJ1110"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -24386,14 +24486,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="O2" s="26" t="s">
+      <c r="E2" s="27"/>
+      <c r="O2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="26"/>
+      <c r="P2" s="27"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D3" s="3" t="s">
@@ -26069,10 +26169,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
@@ -26692,10 +26792,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="E2" s="10" t="s">
         <v>28</v>
       </c>
@@ -27833,15 +27933,15 @@
       <c r="B5" s="10"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
@@ -28534,10 +28634,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="E2" t="s">
         <v>28</v>
       </c>
@@ -29634,10 +29734,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="J2" s="10" t="s">
         <v>28</v>
       </c>

--- a/ExcelRAddIn/Tests/Forecast.xlsx
+++ b/ExcelRAddIn/Tests/Forecast.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Projects\C#\Office\Office365 AddIns\ExcelRAddIn\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F116623-D71E-40C6-A6D9-47C4385813E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32271BFD-36EA-47F6-A842-EE4AAF22C8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="899" activeTab="1" xr2:uid="{237949DD-86ED-4837-BFB0-873A1F9330BE}"/>
   </bookViews>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="193">
   <si>
     <t>Day</t>
   </si>
@@ -811,37 +811,6 @@
   <si>
     <t>library(ggthemes)</t>
   </si>
-  <si>
-    <t># Convert AirPassengers time series to a data frame</t>
-  </si>
-  <si>
-    <t>data &lt;- data.frame(
-  Year = time(AirPassengers),
-  Passengers = as.numeric(AirPassengers)
-)</t>
-  </si>
-  <si>
-    <t>plot(
-	ggplot(data = data, mapping = aes(x = Year, y = Passengers, )) + 
-	geom_line(colour = 'blue') + 
-	theme_minimal() + 
-	labs(title = 'Monthly Airline Passenger Numbers (1949-1960)', x = 'Year', y = 'Number of Passengers', )
-)</t>
-  </si>
-  <si>
-    <t>plot(
-	ggplot(data = mpg, mapping = aes(x = displ, y = hwy)) + 
-geom_point()
-)</t>
-  </si>
-  <si>
-    <t>plot(
-ggplot(data = data, mapping = aes(x = Year, y = Passengers)) + 
-geom_line(colour = 'blue', linetype = 'dotted') + 
-	labs(title = 'Monthly Airline Passenger Numbers (1949-1960)', x = 'Year', y = 'Number of Passengers', caption = 'Dataset') + 
-theme_minimal()
-)</t>
-  </si>
 </sst>
 </file>
 
@@ -957,7 +926,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -994,9 +963,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4382,7 +4348,7 @@
   <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4432,10 +4398,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="26"/>
       <c r="J2" s="10" t="s">
         <v>28</v>
       </c>
@@ -5087,10 +5053,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="26"/>
       <c r="H2" s="7" t="s">
         <v>28</v>
       </c>
@@ -6817,10 +6783,10 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="26"/>
       <c r="E2" t="str" cm="1">
         <f t="array" ref="E2:O2">TRANSPOSE(_xll.Model.Results(C9))</f>
         <v>method</v>
@@ -8070,10 +8036,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:84" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="26"/>
       <c r="E2" t="str" cm="1">
         <f t="array" ref="E2:O2">TRANSPOSE(_xll.Model.Results(C9))</f>
         <v>method</v>
@@ -9861,10 +9827,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="26"/>
       <c r="E2" t="str" cm="1">
         <f t="array" ref="E2:P2">TRANSPOSE(_xll.Model.Results(C9))</f>
         <v>method</v>
@@ -10195,10 +10161,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="26"/>
       <c r="E2" t="str" cm="1">
         <f t="array" ref="E2:N2">TRANSPOSE(_xll.Model.Results(C9))</f>
         <v>model</v>
@@ -11081,10 +11047,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
@@ -12088,10 +12054,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="26"/>
       <c r="F3" s="10" t="s">
         <v>28</v>
       </c>
@@ -13556,10 +13522,10 @@
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="27"/>
+      <c r="C46" s="26"/>
       <c r="R46" t="str">
         <v xml:space="preserve">        if (is.factor(y)) {</v>
       </c>
@@ -14889,15 +14855,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA1CB6E-EEA6-410B-8C3F-D152623D3978}">
-  <dimension ref="C2:E19"/>
+  <dimension ref="C2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="59.109375" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:5" x14ac:dyDescent="0.3">
@@ -14934,46 +14900,6 @@
       <c r="E5" t="str" cm="1">
         <f t="array" ref="E5">_xll.RScript.Evaluate(C5, TRUE)</f>
         <v>OK</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="26"/>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C11" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11" t="str" cm="1">
-        <f t="array" ref="E11">_xll.RScript.Evaluate(C11, TRUE)</f>
-        <v>data</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="C13" s="26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C16" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="E16" t="str" cm="1">
-        <f t="array" ref="E16">_xll.RScript.Evaluate(C16, TRUE)</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="C19" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="E19" cm="1">
-        <f t="array" aca="1" ref="E19" ca="1">_xll.RScript.Evaluate(C19, TRUE)</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14985,9 +14911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16A5A11-FD74-4F49-8237-7EB8CA3CF65D}">
   <dimension ref="B2:AJ1110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -24475,7 +24399,7 @@
   <dimension ref="B2:P185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24486,14 +24410,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="O2" s="27" t="s">
+      <c r="E2" s="26"/>
+      <c r="O2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="27"/>
+      <c r="P2" s="26"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D3" s="3" t="s">
@@ -26169,10 +26093,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="26"/>
       <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
@@ -26792,10 +26716,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="26"/>
       <c r="E2" s="10" t="s">
         <v>28</v>
       </c>
@@ -27933,15 +27857,15 @@
       <c r="B5" s="10"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
@@ -28634,10 +28558,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="26"/>
       <c r="E2" t="s">
         <v>28</v>
       </c>
@@ -29734,10 +29658,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="26"/>
       <c r="J2" s="10" t="s">
         <v>28</v>
       </c>
